--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,59 +875,153 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
+          <t>A 36038-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45149</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45172</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Smalfotad taggsvamp
+Garnlav
+Mörk kolflarnlav
+Orange taggsvamp
+Svart taggsvamp
+Tretåig hackspett
+Vaddporing
+Violettgrå tagellav
+Plattlummer
+Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 36038-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 36038-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 36038-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 36038-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 36038-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 36038-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>A 50972-2020</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44111</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45171</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>45172</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>6.9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>6</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>9</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Kolflarnlav
 Nordtagging
@@ -940,124 +1034,31 @@
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 50972-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 50972-2020.png")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 50972-2020.docx")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 50972-2020.docx")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 50972-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 50972-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 36038-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45149</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45171</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>9</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Smalfotad taggsvamp
-Garnlav
-Mörk kolflarnlav
-Orange taggsvamp
-Svart taggsvamp
-Tretåig hackspett
-Vaddporing
-Violettgrå tagellav
-Skarp dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 36038-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 36038-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 36038-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 36038-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 36038-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 36038-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1068,7 +1069,7 @@
         <v>44714</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1168,7 @@
         <v>44691</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1256,7 @@
         <v>45128</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1349,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1436,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1522,7 @@
         <v>44701</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1612,7 +1613,7 @@
         <v>44858</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1698,7 +1699,7 @@
         <v>44879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1785,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1874,7 +1875,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1959,7 +1960,7 @@
         <v>44833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2050,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2134,7 +2135,7 @@
         <v>45145</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2225,7 @@
         <v>45160</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2314,7 +2315,7 @@
         <v>43319</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2371,7 +2372,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2429,7 @@
         <v>43364</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2485,7 +2486,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2542,7 +2543,7 @@
         <v>43374</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2604,7 +2605,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2666,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2728,7 +2729,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2790,7 +2791,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2847,7 +2848,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2904,7 +2905,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2961,7 +2962,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3018,7 +3019,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3075,7 +3076,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3132,7 +3133,7 @@
         <v>43432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3189,7 +3190,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3246,7 +3247,7 @@
         <v>43472</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3303,7 +3304,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3360,7 +3361,7 @@
         <v>43476</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3417,7 +3418,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3474,7 +3475,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3531,7 +3532,7 @@
         <v>43483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3588,7 +3589,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3645,7 +3646,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3702,7 +3703,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3759,7 +3760,7 @@
         <v>43493</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3816,7 +3817,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3873,7 +3874,7 @@
         <v>43501</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3930,7 +3931,7 @@
         <v>43502</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3987,7 +3988,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4044,7 +4045,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4101,7 +4102,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4158,7 +4159,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4215,7 +4216,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4272,7 +4273,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4329,7 +4330,7 @@
         <v>43550</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4386,7 +4387,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4444,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4500,7 +4501,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4557,7 +4558,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4614,7 +4615,7 @@
         <v>43609</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4677,7 @@
         <v>43619</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4738,7 +4739,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4800,7 +4801,7 @@
         <v>43640</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4862,7 +4863,7 @@
         <v>43643</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4924,7 +4925,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4986,7 +4987,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5043,7 +5044,7 @@
         <v>43655</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5100,7 +5101,7 @@
         <v>43661</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5157,7 +5158,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5214,7 +5215,7 @@
         <v>43676</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5271,7 +5272,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5328,7 +5329,7 @@
         <v>43682</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5385,7 +5386,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5442,7 +5443,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5499,7 +5500,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5556,7 +5557,7 @@
         <v>43717</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5613,7 +5614,7 @@
         <v>43735</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5675,7 +5676,7 @@
         <v>43738</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5737,7 +5738,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5794,7 +5795,7 @@
         <v>43765</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5851,7 +5852,7 @@
         <v>43774</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5908,7 +5909,7 @@
         <v>43797</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5965,7 +5966,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6022,7 +6023,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6079,7 +6080,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6136,7 +6137,7 @@
         <v>43811</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6193,7 +6194,7 @@
         <v>43816</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6250,7 +6251,7 @@
         <v>43818</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6307,7 +6308,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6364,7 +6365,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6421,7 +6422,7 @@
         <v>43845</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6478,7 +6479,7 @@
         <v>43846</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6535,7 +6536,7 @@
         <v>43865</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6592,7 +6593,7 @@
         <v>43871</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6649,7 +6650,7 @@
         <v>43873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6706,7 +6707,7 @@
         <v>43906</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6768,7 +6769,7 @@
         <v>43909</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6825,7 +6826,7 @@
         <v>43923</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6887,7 +6888,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6944,7 +6945,7 @@
         <v>43948</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7001,7 +7002,7 @@
         <v>43951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7058,7 +7059,7 @@
         <v>43964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7120,7 +7121,7 @@
         <v>43970</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7182,7 +7183,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7244,7 +7245,7 @@
         <v>43983</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7301,7 +7302,7 @@
         <v>43997</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7363,7 +7364,7 @@
         <v>44008</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7425,7 +7426,7 @@
         <v>44032</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7482,7 +7483,7 @@
         <v>44039</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7544,7 +7545,7 @@
         <v>44053</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7607,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7668,7 +7669,7 @@
         <v>44067</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7725,7 +7726,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7782,7 +7783,7 @@
         <v>44102</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7839,7 +7840,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7896,7 +7897,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7953,7 +7954,7 @@
         <v>44116</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8010,7 +8011,7 @@
         <v>44141</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8072,7 +8073,7 @@
         <v>44145</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8129,7 +8130,7 @@
         <v>44158</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8186,7 +8187,7 @@
         <v>44160</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8243,7 +8244,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8300,7 +8301,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8362,7 +8363,7 @@
         <v>44165</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8419,7 +8420,7 @@
         <v>44176</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8476,7 +8477,7 @@
         <v>44179</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8533,7 +8534,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8590,7 +8591,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8647,7 +8648,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8704,7 +8705,7 @@
         <v>44180</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8766,7 +8767,7 @@
         <v>44182</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8823,7 +8824,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8885,7 +8886,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8942,7 +8943,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8999,7 +9000,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9056,7 +9057,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9113,7 +9114,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9170,7 +9171,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9232,7 +9233,7 @@
         <v>44200</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9289,7 +9290,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9346,7 +9347,7 @@
         <v>44218</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9403,7 +9404,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9460,7 +9461,7 @@
         <v>44222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9517,7 +9518,7 @@
         <v>44224</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9574,7 +9575,7 @@
         <v>44287</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9631,7 +9632,7 @@
         <v>44292</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9688,7 +9689,7 @@
         <v>44300</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9745,7 +9746,7 @@
         <v>44307</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9802,7 +9803,7 @@
         <v>44322</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9859,7 +9860,7 @@
         <v>44336</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9916,7 +9917,7 @@
         <v>44343</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9973,7 +9974,7 @@
         <v>44349</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10030,7 +10031,7 @@
         <v>44350</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10087,7 +10088,7 @@
         <v>44351</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10144,7 +10145,7 @@
         <v>44355</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10201,7 +10202,7 @@
         <v>44356</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10258,7 +10259,7 @@
         <v>44361</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10315,7 +10316,7 @@
         <v>44363</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10372,7 +10373,7 @@
         <v>44377</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10429,7 +10430,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10491,7 +10492,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10548,7 +10549,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10605,7 +10606,7 @@
         <v>44391</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10662,7 +10663,7 @@
         <v>44417</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10724,7 +10725,7 @@
         <v>44424</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10781,7 +10782,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10838,7 +10839,7 @@
         <v>44432</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10900,7 +10901,7 @@
         <v>44448</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10962,7 +10963,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11019,7 +11020,7 @@
         <v>44460</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11076,7 +11077,7 @@
         <v>44461</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11138,7 +11139,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11200,7 +11201,7 @@
         <v>44466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11257,7 +11258,7 @@
         <v>44467</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11314,7 +11315,7 @@
         <v>44469</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11371,7 +11372,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11428,7 +11429,7 @@
         <v>44475</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11485,7 +11486,7 @@
         <v>44477</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11542,7 +11543,7 @@
         <v>44483</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11599,7 +11600,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11656,7 +11657,7 @@
         <v>44496</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11713,7 +11714,7 @@
         <v>44497</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11770,7 +11771,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11827,7 +11828,7 @@
         <v>44526</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11889,7 +11890,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11946,7 +11947,7 @@
         <v>44536</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12003,7 +12004,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12065,7 +12066,7 @@
         <v>44545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12122,7 +12123,7 @@
         <v>44564</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12184,7 +12185,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12246,7 +12247,7 @@
         <v>44588</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12303,7 +12304,7 @@
         <v>44617</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12365,7 +12366,7 @@
         <v>44620</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12422,7 +12423,7 @@
         <v>44623</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12479,7 +12480,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12536,7 +12537,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12593,7 +12594,7 @@
         <v>44627</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12650,7 +12651,7 @@
         <v>44641</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12707,7 +12708,7 @@
         <v>44691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12769,7 +12770,7 @@
         <v>44693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12826,7 +12827,7 @@
         <v>44699</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12888,7 +12889,7 @@
         <v>44711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12950,7 +12951,7 @@
         <v>44715</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13007,7 +13008,7 @@
         <v>44720</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13064,7 +13065,7 @@
         <v>44722</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13126,7 +13127,7 @@
         <v>44727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13188,7 +13189,7 @@
         <v>44753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13245,7 +13246,7 @@
         <v>44763</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13307,7 +13308,7 @@
         <v>44777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13369,7 +13370,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13431,7 +13432,7 @@
         <v>44838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13488,7 +13489,7 @@
         <v>44844</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13545,7 +13546,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13602,7 +13603,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13664,7 +13665,7 @@
         <v>44857</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13726,7 +13727,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13783,7 +13784,7 @@
         <v>44867</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13845,7 +13846,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13907,7 +13908,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13964,7 +13965,7 @@
         <v>44880</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14026,7 +14027,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14088,7 +14089,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14145,7 +14146,7 @@
         <v>44888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14202,7 +14203,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14264,7 +14265,7 @@
         <v>44900</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14327,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14389,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14451,7 @@
         <v>44908</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14508,7 @@
         <v>44909</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14569,7 +14570,7 @@
         <v>44914</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14626,7 +14627,7 @@
         <v>44928</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14688,7 +14689,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14750,7 +14751,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14807,7 +14808,7 @@
         <v>44964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14869,7 +14870,7 @@
         <v>44973</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14926,7 +14927,7 @@
         <v>44981</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14988,7 +14989,7 @@
         <v>44994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15045,7 +15046,7 @@
         <v>44997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15102,7 +15103,7 @@
         <v>45030</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15159,7 +15160,7 @@
         <v>45040</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15216,7 +15217,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15273,7 +15274,7 @@
         <v>45043</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15330,7 +15331,7 @@
         <v>45049</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15387,7 +15388,7 @@
         <v>45056</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15444,7 +15445,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15506,7 +15507,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15563,7 +15564,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15620,7 +15621,7 @@
         <v>45061</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15677,7 +15678,7 @@
         <v>45062</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15739,7 +15740,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15801,7 +15802,7 @@
         <v>45063</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15863,7 +15864,7 @@
         <v>45072</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15920,7 +15921,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15977,7 +15978,7 @@
         <v>45076</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16034,7 +16035,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16091,7 +16092,7 @@
         <v>45079</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16153,7 +16154,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16215,7 +16216,7 @@
         <v>45091</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16272,7 +16273,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16329,7 +16330,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16386,7 +16387,7 @@
         <v>45097</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16448,7 +16449,7 @@
         <v>45099</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16510,7 +16511,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16567,7 +16568,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16624,7 +16625,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16686,7 +16687,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16748,7 +16749,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16805,7 +16806,7 @@
         <v>45104</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16862,7 +16863,7 @@
         <v>45111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16924,7 +16925,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16986,7 +16987,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17048,7 +17049,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17110,7 +17111,7 @@
         <v>45113</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17167,7 +17168,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17229,7 +17230,7 @@
         <v>45114</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17286,7 +17287,7 @@
         <v>45120</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17343,7 +17344,7 @@
         <v>45125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17405,7 +17406,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17467,7 +17468,7 @@
         <v>45132</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17524,7 +17525,7 @@
         <v>45134</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17581,7 +17582,7 @@
         <v>45135</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17638,7 +17639,7 @@
         <v>45145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17695,7 +17696,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17752,7 +17753,7 @@
         <v>45149</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17814,7 +17815,7 @@
         <v>45154</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17871,7 +17872,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17933,7 +17934,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44714</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44691</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45128</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>44701</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44858</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>44879</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43319</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>44833</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45145</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45160</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43319</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43364</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43374</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43376</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43418</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43433</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43472</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43476</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>43483</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43489</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43493</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43494</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43501</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43502</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43517</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43550</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43609</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43619</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43626</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43640</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43643</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43648</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43655</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43661</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43664</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43676</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43682</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43713</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43717</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43735</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43738</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43765</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43774</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43797</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43810</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43811</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43816</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43818</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43844</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43845</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43846</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43865</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43871</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43873</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43906</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43909</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>43923</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43948</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43970</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43983</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43997</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44008</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44032</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44039</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44053</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>44067</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>44071</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44102</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44112</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44116</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>44141</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>44145</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>44158</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>44160</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>44165</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>44176</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>44179</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44180</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44182</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44200</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>44218</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>44222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>44224</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44287</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44292</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44300</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44307</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44322</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44336</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>44343</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44349</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44350</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44351</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>44355</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44356</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44361</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44363</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44377</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44382</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44391</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44417</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44424</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>44432</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44448</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44453</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44460</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44461</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>44466</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>44467</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>44469</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44475</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>44477</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>44483</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>44496</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44497</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44526</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44536</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44545</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44564</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>44588</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>44617</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>44620</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>44623</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>44627</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>44641</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44691</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44699</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44715</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44720</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44722</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>44753</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44763</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>44777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44788</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>44838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>44844</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44857</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>44867</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44869</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44872</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>44880</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44900</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44903</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44908</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44909</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44914</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44928</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44973</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44981</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44994</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45030</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>45040</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>45043</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45049</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45056</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45061</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45062</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45063</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>45072</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>45076</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>45079</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45091</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45097</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45099</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45104</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>45111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>45113</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>45114</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>45120</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>45125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>45132</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>45134</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>45135</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>45145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>45149</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>45154</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44714</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,59 +1161,149 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
+          <t>A 36883-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45154</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Mörk kolflarnlav
+Tretåig hackspett
+Vaddporing
+Vedflamlav
+Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 36883-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 36883-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 36883-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 36883-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 36883-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 36883-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>A 19130-2022</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44691</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>4</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Tallbarksvartbagge
 Mindre märgborre
@@ -1221,92 +1311,92 @@
 Mindre vattensalamander</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 19130-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 19130-2022.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 19130-2022.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 19130-2022.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 19130-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 19130-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 33366-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45128</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>3.5</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>4</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -1314,1065 +1404,1008 @@
 Violettgrå tagellav</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 33366-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 33366-2023.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 33366-2023.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 33366-2023.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 33366-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 33366-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 42651-2020</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44077</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>3.9</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>3</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>3</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Skrovellav
 Tallticka
 Vedflamlav</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 42651-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 42651-2020.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 42651-2020.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 42651-2020.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 42651-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 42651-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 63810-2021</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44509</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>18.4</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>2</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Violettgrå tagellav</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 63810-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 63810-2021.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 63810-2021.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 63810-2021.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 63810-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 63810-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 20914-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44701</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>32.6</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Kungsörn
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 20914-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 20914-2022.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 20914-2022.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 20914-2022.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 20914-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 20914-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 48343-2022</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44858</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>1.6</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 48343-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 48343-2022.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 48343-2022.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 48343-2022.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 48343-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 48343-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 53629-2022</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44879</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Större vattensalamander
 Mindre vattensalamander</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 53629-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 53629-2022.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 53629-2022.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 53629-2022.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 53629-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 53629-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 34447-2018</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>43319</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>3.7</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Garnlav</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 34447-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 34447-2018.png")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 34447-2018.docx")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 34447-2018.docx")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 34447-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 34447-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 38211-2020</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44060</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1.2</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Utter</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 38211-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 38211-2020.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 38211-2020.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 38211-2020.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 38211-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 38211-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 43037-2022</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44833</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>13.2</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 43037-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 43037-2022.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 43037-2022.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 43037-2022.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 43037-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 43037-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 29044-2023</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>45104</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>1.8</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Korallblylav</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 29044-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 29044-2023.png")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 29044-2023.docx")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 29044-2023.docx")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 29044-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 29044-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 35112-2023</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45145</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>6.9</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Skrovellav</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 35112-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 35112-2023.png")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 35112-2023.docx")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 35112-2023.docx")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 35112-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 35112-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 37887-2023</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>45160</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>20.5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Varglav</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 37887-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 37887-2023.png")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 37887-2023.docx")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 37887-2023.docx")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 37887-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 37887-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 34389-2018</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>43319</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr"/>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34414-2018</t>
+          <t>A 34389-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2385,7 +2418,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2422,14 +2455,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 45676-2018</t>
+          <t>A 34414-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43364</v>
+        <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,7 +2475,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2479,14 +2512,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 48004-2018</t>
+          <t>A 45676-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43371</v>
+        <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2499,7 +2532,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>22.7</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2536,14 +2569,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59675-2018</t>
+          <t>A 48004-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43374</v>
+        <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2555,13 +2588,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>22.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2598,14 +2626,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 59703-2018</t>
+          <t>A 59675-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43376</v>
+        <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2623,7 +2651,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2660,14 +2688,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 59736-2018</t>
+          <t>A 59703-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43381</v>
+        <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2685,7 +2713,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2722,14 +2750,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 59761-2018</t>
+          <t>A 59736-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2775,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2784,14 +2812,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 62061-2018</t>
+          <t>A 59761-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43416</v>
+        <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2801,6 +2829,11 @@
       <c r="E29" t="inlineStr">
         <is>
           <t>ORSA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -2841,14 +2874,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 62359-2018</t>
+          <t>A 62061-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2894,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2898,14 +2931,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 62063-2018</t>
+          <t>A 62359-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2951,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>8.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2955,14 +2988,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62054-2018</t>
+          <t>A 62063-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +3008,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3012,14 +3045,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62052-2018</t>
+          <t>A 62054-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3065,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3069,14 +3102,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 63134-2018</t>
+          <t>A 62052-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43418</v>
+        <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3089,7 +3122,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3126,14 +3159,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 65400-2018</t>
+          <t>A 63134-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43432</v>
+        <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3146,7 +3179,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3183,14 +3216,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 65508-2018</t>
+          <t>A 65400-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43433</v>
+        <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3203,7 +3236,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3240,14 +3273,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 932-2019</t>
+          <t>A 65508-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43472</v>
+        <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3260,7 +3293,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3297,14 +3330,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 1243-2019</t>
+          <t>A 932-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3317,7 +3350,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3354,14 +3387,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 4143-2019</t>
+          <t>A 1243-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43476</v>
+        <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3374,7 +3407,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3411,14 +3444,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 4145-2019</t>
+          <t>A 4143-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3431,7 +3464,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3468,14 +3501,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4484-2019</t>
+          <t>A 4145-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43479</v>
+        <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3488,7 +3521,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3525,14 +3558,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 4349-2019</t>
+          <t>A 4484-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43483</v>
+        <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3545,7 +3578,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3582,14 +3615,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7168-2019</t>
+          <t>A 4349-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43489</v>
+        <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3602,7 +3635,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3639,14 +3672,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7184-2019</t>
+          <t>A 7168-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3659,7 +3692,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3696,14 +3729,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7130-2019</t>
+          <t>A 7184-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3749,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>20.4</v>
+        <v>4.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3753,14 +3786,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 6172-2019</t>
+          <t>A 7130-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43493</v>
+        <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3773,7 +3806,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>20.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3810,14 +3843,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6429-2019</t>
+          <t>A 6172-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43494</v>
+        <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3830,7 +3863,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3867,14 +3900,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8627-2019</t>
+          <t>A 6429-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43501</v>
+        <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3920,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3924,14 +3957,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8738-2019</t>
+          <t>A 8627-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43502</v>
+        <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3977,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3981,14 +4014,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8732-2019</t>
+          <t>A 8738-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4034,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4038,14 +4071,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8730-2019</t>
+          <t>A 8732-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4091,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4095,14 +4128,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11614-2019</t>
+          <t>A 8730-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43517</v>
+        <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4148,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4152,14 +4185,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14094-2019</t>
+          <t>A 11614-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43529</v>
+        <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4205,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4209,14 +4242,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 14089-2019</t>
+          <t>A 14094-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4262,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4266,14 +4299,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15701-2019</t>
+          <t>A 14089-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43543</v>
+        <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4319,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4323,14 +4356,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16961-2019</t>
+          <t>A 15701-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43550</v>
+        <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4376,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4380,14 +4413,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 16938-2019</t>
+          <t>A 16961-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4433,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4437,14 +4470,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16956-2019</t>
+          <t>A 16938-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4490,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>19.3</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4494,14 +4527,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16958-2019</t>
+          <t>A 16956-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4547,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>17.7</v>
+        <v>19.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4551,14 +4584,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16914-2019</t>
+          <t>A 16958-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4604,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>17.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4608,14 +4641,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 26119-2019</t>
+          <t>A 16914-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43609</v>
+        <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,13 +4660,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4670,14 +4698,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 27655-2019</t>
+          <t>A 26119-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43619</v>
+        <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4691,11 +4719,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>26.9</v>
+        <v>4.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4732,14 +4760,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28464-2019</t>
+          <t>A 27655-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43626</v>
+        <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4757,7 +4785,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>26.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4794,14 +4822,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31099-2019</t>
+          <t>A 28464-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43640</v>
+        <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4815,11 +4843,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4856,14 +4884,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31956-2019</t>
+          <t>A 31099-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43643</v>
+        <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4877,11 +4905,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4918,14 +4946,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32094-2019</t>
+          <t>A 31956-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4939,11 +4967,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>19.2</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4980,14 +5008,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32933-2019</t>
+          <t>A 32094-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43648</v>
+        <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,8 +5027,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>6.3</v>
+        <v>19.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5037,14 +5070,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34257-2019</t>
+          <t>A 32933-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43655</v>
+        <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5090,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5094,14 +5127,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 36274-2019</t>
+          <t>A 34257-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43661</v>
+        <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5114,7 +5147,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5151,14 +5184,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35663-2019</t>
+          <t>A 36274-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43664</v>
+        <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5171,7 +5204,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5208,14 +5241,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 37001-2019</t>
+          <t>A 35663-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43676</v>
+        <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5228,7 +5261,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5265,14 +5298,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36989-2019</t>
+          <t>A 37001-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5285,7 +5318,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5322,14 +5355,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 37809-2019</t>
+          <t>A 36989-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43682</v>
+        <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5342,7 +5375,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5379,14 +5412,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38857-2019</t>
+          <t>A 37809-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43689</v>
+        <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5432,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5436,14 +5469,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38858-2019</t>
+          <t>A 38857-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5456,7 +5489,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5493,14 +5526,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45996-2019</t>
+          <t>A 38858-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43713</v>
+        <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5513,7 +5546,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5550,14 +5583,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45612-2019</t>
+          <t>A 45996-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43717</v>
+        <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5570,7 +5603,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5607,14 +5640,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50528-2019</t>
+          <t>A 45612-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43735</v>
+        <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5626,13 +5659,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5669,14 +5697,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50934-2019</t>
+          <t>A 50528-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43738</v>
+        <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5690,11 +5718,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>11.4</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5731,14 +5759,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55522-2019</t>
+          <t>A 50934-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43759</v>
+        <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5750,8 +5778,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>8.1</v>
+        <v>11.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5788,14 +5821,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56862-2019</t>
+          <t>A 55522-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43765</v>
+        <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5808,7 +5841,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.4</v>
+        <v>8.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5845,14 +5878,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59007-2019</t>
+          <t>A 56862-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43774</v>
+        <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5865,7 +5898,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5902,14 +5935,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 64389-2019</t>
+          <t>A 59007-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43797</v>
+        <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5922,7 +5955,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5959,14 +5992,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 65252-2019</t>
+          <t>A 64389-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5979,7 +6012,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6016,14 +6049,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 66862-2019</t>
+          <t>A 65252-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43810</v>
+        <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6036,7 +6069,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6073,14 +6106,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 67884-2019</t>
+          <t>A 66862-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6093,7 +6126,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6130,14 +6163,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 67295-2019</t>
+          <t>A 67884-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43811</v>
+        <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6150,7 +6183,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6187,14 +6220,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 67878-2019</t>
+          <t>A 67295-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43816</v>
+        <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6207,7 +6240,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6244,14 +6277,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 68558-2019</t>
+          <t>A 67878-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43818</v>
+        <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6264,7 +6297,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6301,14 +6334,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 68376-2019</t>
+          <t>A 68558-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6358,14 +6391,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 1829-2020</t>
+          <t>A 68376-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43844</v>
+        <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6378,7 +6411,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6415,14 +6448,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3337-2020</t>
+          <t>A 1829-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43845</v>
+        <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6435,7 +6468,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6472,14 +6505,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 2166-2020</t>
+          <t>A 3337-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43846</v>
+        <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6492,7 +6525,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>11.2</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6529,14 +6562,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 6597-2020</t>
+          <t>A 2166-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43865</v>
+        <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6549,7 +6582,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>11.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6586,14 +6619,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7249-2020</t>
+          <t>A 6597-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43871</v>
+        <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6606,7 +6639,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6643,14 +6676,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7979-2020</t>
+          <t>A 7249-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6663,7 +6696,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6700,14 +6733,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 14947-2020</t>
+          <t>A 7979-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43906</v>
+        <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6719,13 +6752,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>26.8</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6762,14 +6790,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 14682-2020</t>
+          <t>A 14947-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6781,8 +6809,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>26.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6819,14 +6852,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 17406-2020</t>
+          <t>A 14682-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43923</v>
+        <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6838,13 +6871,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>89.8</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6881,14 +6909,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 19208-2020</t>
+          <t>A 17406-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43937</v>
+        <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6900,8 +6928,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>89.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6938,14 +6971,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 20590-2020</t>
+          <t>A 19208-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43948</v>
+        <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6958,7 +6991,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6995,14 +7028,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 21057-2020</t>
+          <t>A 20590-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43951</v>
+        <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7015,7 +7048,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7052,14 +7085,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22785-2020</t>
+          <t>A 21057-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43964</v>
+        <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7071,13 +7104,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7114,14 +7142,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 23766-2020</t>
+          <t>A 22785-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43970</v>
+        <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7139,7 +7167,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7176,14 +7204,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 23746-2020</t>
+          <t>A 23766-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7197,11 +7225,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>13.9</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7238,14 +7266,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25664-2020</t>
+          <t>A 23746-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43983</v>
+        <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,8 +7285,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>5.3</v>
+        <v>13.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7295,14 +7328,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27945-2020</t>
+          <t>A 25664-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>43997</v>
+        <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,13 +7347,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7357,14 +7385,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 30672-2020</t>
+          <t>A 27945-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44008</v>
+        <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7382,7 +7410,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7419,14 +7447,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 34544-2020</t>
+          <t>A 30672-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44032</v>
+        <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7438,8 +7466,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7476,14 +7509,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34986-2020</t>
+          <t>A 34544-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44039</v>
+        <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7495,13 +7528,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7538,14 +7566,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36822-2020</t>
+          <t>A 34986-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44053</v>
+        <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7563,7 +7591,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7600,14 +7628,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36919-2020</t>
+          <t>A 36822-2020</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7625,7 +7653,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7662,14 +7690,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 39969-2020</t>
+          <t>A 36919-2020</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44067</v>
+        <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7681,8 +7709,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7719,14 +7752,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 41079-2020</t>
+          <t>A 39969-2020</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44071</v>
+        <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7739,7 +7772,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7776,14 +7809,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48956-2020</t>
+          <t>A 41079-2020</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44102</v>
+        <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7796,7 +7829,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7833,14 +7866,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48954-2020</t>
+          <t>A 48956-2020</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7853,7 +7886,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7890,14 +7923,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 51094-2020</t>
+          <t>A 48954-2020</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44112</v>
+        <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7910,7 +7943,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7947,14 +7980,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52495-2020</t>
+          <t>A 51094-2020</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44116</v>
+        <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7967,7 +8000,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8004,14 +8037,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57765-2020</t>
+          <t>A 52495-2020</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44141</v>
+        <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8023,13 +8056,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8066,14 +8094,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58556-2020</t>
+          <t>A 57765-2020</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44145</v>
+        <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8085,8 +8113,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8123,14 +8156,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61699-2020</t>
+          <t>A 58556-2020</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44158</v>
+        <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8143,7 +8176,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8180,14 +8213,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 63374-2020</t>
+          <t>A 61699-2020</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8200,7 +8233,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8237,14 +8270,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 63367-2020</t>
+          <t>A 63374-2020</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8257,7 +8290,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8294,14 +8327,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62379-2020</t>
+          <t>A 63367-2020</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8313,13 +8346,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8356,14 +8384,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 63543-2020</t>
+          <t>A 62379-2020</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44165</v>
+        <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,8 +8403,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8413,14 +8446,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 66323-2020</t>
+          <t>A 63543-2020</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44176</v>
+        <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8433,7 +8466,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8470,14 +8503,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 66567-2020</t>
+          <t>A 66323-2020</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44179</v>
+        <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8490,7 +8523,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7.8</v>
+        <v>3.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8527,14 +8560,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 66593-2020</t>
+          <t>A 66567-2020</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8547,7 +8580,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8584,14 +8617,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 66536-2020</t>
+          <t>A 66593-2020</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8604,7 +8637,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8641,14 +8674,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 66533-2020</t>
+          <t>A 66536-2020</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8661,7 +8694,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8698,14 +8731,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 67189-2020</t>
+          <t>A 66533-2020</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8717,13 +8750,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8760,14 +8788,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 67834-2020</t>
+          <t>A 67189-2020</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8779,8 +8807,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8817,14 +8850,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 67911-2020</t>
+          <t>A 67834-2020</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8836,13 +8869,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8879,14 +8907,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 67929-2020</t>
+          <t>A 67911-2020</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,8 +8926,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>8.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8936,14 +8969,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 67755-2020</t>
+          <t>A 67929-2020</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8956,7 +8989,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8993,14 +9026,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 67842-2020</t>
+          <t>A 67755-2020</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9013,7 +9046,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>10.6</v>
+        <v>7.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9050,14 +9083,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 67935-2020</t>
+          <t>A 67842-2020</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9070,7 +9103,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>10.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9107,14 +9140,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 67950-2020</t>
+          <t>A 67935-2020</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9127,7 +9160,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9164,14 +9197,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 67971-2020</t>
+          <t>A 67950-2020</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9183,13 +9216,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9226,14 +9254,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 112-2021</t>
+          <t>A 67971-2020</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44200</v>
+        <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9245,8 +9273,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9283,14 +9316,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 2112-2021</t>
+          <t>A 112-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44211</v>
+        <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9303,7 +9336,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9340,14 +9373,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 3452-2021</t>
+          <t>A 2112-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44218</v>
+        <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9360,7 +9393,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>12.5</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9397,14 +9430,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 3421-2021</t>
+          <t>A 3452-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9417,7 +9450,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>12.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9454,14 +9487,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 4108-2021</t>
+          <t>A 3421-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9474,7 +9507,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9511,14 +9544,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 4454-2021</t>
+          <t>A 4108-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9531,7 +9564,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9568,14 +9601,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 15914-2021</t>
+          <t>A 4454-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44287</v>
+        <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9588,7 +9621,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9625,14 +9658,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 16270-2021</t>
+          <t>A 15914-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44292</v>
+        <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9645,7 +9678,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9682,14 +9715,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 17718-2021</t>
+          <t>A 16270-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9702,7 +9735,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>8.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9739,14 +9772,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 18708-2021</t>
+          <t>A 17718-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44307</v>
+        <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9759,7 +9792,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9796,14 +9829,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 21678-2021</t>
+          <t>A 18708-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44322</v>
+        <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9816,7 +9849,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>11.4</v>
+        <v>2.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9853,14 +9886,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 24083-2021</t>
+          <t>A 21678-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44336</v>
+        <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9873,7 +9906,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>11.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9910,14 +9943,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 25761-2021</t>
+          <t>A 24083-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9930,7 +9963,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9967,14 +10000,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 26831-2021</t>
+          <t>A 25761-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44349</v>
+        <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9987,7 +10020,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10024,14 +10057,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 27146-2021</t>
+          <t>A 26831-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10077,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10081,14 +10114,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 27542-2021</t>
+          <t>A 27146-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10138,14 +10171,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28259-2021</t>
+          <t>A 27542-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44355</v>
+        <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10191,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10195,14 +10228,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 28630-2021</t>
+          <t>A 28259-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10248,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10252,14 +10285,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 29555-2021</t>
+          <t>A 28630-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44361</v>
+        <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10305,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10309,14 +10342,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 30125-2021</t>
+          <t>A 29555-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10362,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10366,14 +10399,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33265-2021</t>
+          <t>A 30125-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44377</v>
+        <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10419,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10423,14 +10456,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33480-2021</t>
+          <t>A 33265-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10442,13 +10475,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10485,14 +10513,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 34708-2021</t>
+          <t>A 33480-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44382</v>
+        <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10504,8 +10532,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10542,14 +10575,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34713-2021</t>
+          <t>A 34708-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10595,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10599,14 +10632,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 36569-2021</t>
+          <t>A 34713-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44391</v>
+        <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10652,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>8.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10656,14 +10689,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 39920-2021</t>
+          <t>A 36569-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10675,13 +10708,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10718,14 +10746,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 41295-2021</t>
+          <t>A 39920-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10737,8 +10765,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10775,14 +10808,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 41291-2021</t>
+          <t>A 41295-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10828,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10832,14 +10865,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 43391-2021</t>
+          <t>A 41291-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44432</v>
+        <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10851,13 +10884,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10894,14 +10922,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 47778-2021</t>
+          <t>A 43391-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44448</v>
+        <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10919,7 +10947,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>6.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10956,14 +10984,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 49028-2021</t>
+          <t>A 47778-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44453</v>
+        <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10975,8 +11003,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11013,14 +11046,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 50905-2021</t>
+          <t>A 49028-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44460</v>
+        <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11033,7 +11066,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11070,14 +11103,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51278-2021</t>
+          <t>A 50905-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11089,13 +11122,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11132,14 +11160,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51277-2021</t>
+          <t>A 51278-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11194,14 +11222,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 52542-2021</t>
+          <t>A 51277-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44466</v>
+        <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11213,8 +11241,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11251,14 +11284,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53102-2021</t>
+          <t>A 52542-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11304,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11308,14 +11341,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 53740-2021</t>
+          <t>A 53102-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44469</v>
+        <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11361,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11365,14 +11398,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53745-2021</t>
+          <t>A 53740-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11418,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11422,14 +11455,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 55354-2021</t>
+          <t>A 53745-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44475</v>
+        <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11475,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11479,14 +11512,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56162-2021</t>
+          <t>A 55354-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11499,7 +11532,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11536,14 +11569,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57271-2021</t>
+          <t>A 56162-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44483</v>
+        <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11556,7 +11589,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11593,14 +11626,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59868-2021</t>
+          <t>A 57271-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44494</v>
+        <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11613,7 +11646,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11650,14 +11683,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 60391-2021</t>
+          <t>A 59868-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44496</v>
+        <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11670,7 +11703,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11707,14 +11740,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61005-2021</t>
+          <t>A 60391-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11727,7 +11760,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11764,14 +11797,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 61000-2021</t>
+          <t>A 61005-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11784,7 +11817,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11821,14 +11854,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 68230-2021</t>
+          <t>A 61000-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44526</v>
+        <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11840,13 +11873,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11883,14 +11911,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 69721-2021</t>
+          <t>A 68230-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44532</v>
+        <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11902,8 +11930,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11940,14 +11973,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 70332-2021</t>
+          <t>A 69721-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11960,7 +11993,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11997,14 +12030,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 71744-2021</t>
+          <t>A 70332-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44543</v>
+        <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12016,13 +12049,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12059,14 +12087,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 72310-2021</t>
+          <t>A 71744-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12078,8 +12106,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12116,14 +12149,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 160-2022</t>
+          <t>A 72310-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44564</v>
+        <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12135,13 +12168,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12178,14 +12206,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 169-2022</t>
+          <t>A 160-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12203,7 +12231,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12240,14 +12268,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 4144-2022</t>
+          <t>A 169-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44588</v>
+        <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12259,8 +12287,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12297,14 +12330,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 9561-2022</t>
+          <t>A 4144-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44617</v>
+        <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12316,13 +12349,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12359,14 +12387,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 9836-2022</t>
+          <t>A 9561-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44620</v>
+        <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12378,8 +12406,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12416,14 +12449,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 10375-2022</t>
+          <t>A 9836-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12436,7 +12469,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12473,14 +12506,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 10398-2022</t>
+          <t>A 10375-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12493,7 +12526,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12530,14 +12563,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 10405-2022</t>
+          <t>A 10398-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12550,7 +12583,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12587,14 +12620,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 10832-2022</t>
+          <t>A 10405-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44627</v>
+        <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12644,14 +12677,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 12704-2022</t>
+          <t>A 10832-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44641</v>
+        <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12664,7 +12697,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12701,14 +12734,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 19067-2022</t>
+          <t>A 12704-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44691</v>
+        <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12720,13 +12753,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12763,14 +12791,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 19505-2022</t>
+          <t>A 19067-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44693</v>
+        <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12782,8 +12810,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12820,14 +12853,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 20493-2022</t>
+          <t>A 19505-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44699</v>
+        <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12839,13 +12872,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>61.7</v>
+        <v>2.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12882,14 +12910,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21905-2022</t>
+          <t>A 20493-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44711</v>
+        <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12903,11 +12931,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.1</v>
+        <v>61.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12944,14 +12972,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 22813-2022</t>
+          <t>A 21905-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44715</v>
+        <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12963,8 +12991,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13001,14 +13034,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 23348-2022</t>
+          <t>A 22813-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44720</v>
+        <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13021,7 +13054,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13058,14 +13091,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 23821-2022</t>
+          <t>A 23348-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13077,13 +13110,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13120,14 +13148,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 24651-2022</t>
+          <t>A 23821-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13173,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13182,14 +13210,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 29485-2022</t>
+          <t>A 24651-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44753</v>
+        <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13201,8 +13229,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13239,14 +13272,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 30690-2022</t>
+          <t>A 29485-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44763</v>
+        <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13258,13 +13291,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13301,14 +13329,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 31876-2022</t>
+          <t>A 30690-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44777</v>
+        <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13326,7 +13354,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13363,14 +13391,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 33384-2022</t>
+          <t>A 31876-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44788</v>
+        <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13388,7 +13416,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13425,14 +13453,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 44033-2022</t>
+          <t>A 33384-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44838</v>
+        <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13444,8 +13472,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13482,14 +13515,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 45272-2022</t>
+          <t>A 44033-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44844</v>
+        <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13502,7 +13535,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.3</v>
+        <v>5.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13539,14 +13572,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 47135-2022</t>
+          <t>A 45272-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44852</v>
+        <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13559,7 +13592,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13596,14 +13629,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 47742-2022</t>
+          <t>A 47135-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44854</v>
+        <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13615,13 +13648,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13658,14 +13686,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 48131-2022</t>
+          <t>A 47742-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44857</v>
+        <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13683,7 +13711,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13720,14 +13748,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 50474-2022</t>
+          <t>A 48131-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44866</v>
+        <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13739,8 +13767,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13777,14 +13810,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 50728-2022</t>
+          <t>A 50474-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44867</v>
+        <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13796,13 +13829,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13839,14 +13867,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 51395-2022</t>
+          <t>A 50728-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44869</v>
+        <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13860,11 +13888,11 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>11.8</v>
+        <v>1.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13901,14 +13929,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 51864-2022</t>
+          <t>A 51395-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44872</v>
+        <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13920,8 +13948,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>0.4</v>
+        <v>11.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13958,14 +13991,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 53693-2022</t>
+          <t>A 51864-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44880</v>
+        <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13977,13 +14010,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14020,14 +14048,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 53709-2022</t>
+          <t>A 53693-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14045,7 +14073,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14082,14 +14110,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 53704-2022</t>
+          <t>A 53709-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14101,8 +14129,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>9.699999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14139,14 +14172,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 55691-2022</t>
+          <t>A 53704-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44888</v>
+        <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14159,7 +14192,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14196,14 +14229,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56578-2022</t>
+          <t>A 55691-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14215,13 +14248,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14258,14 +14286,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 58068-2022</t>
+          <t>A 56578-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44900</v>
+        <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14279,11 +14307,11 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>10.6</v>
+        <v>2.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14320,14 +14348,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 58846-2022</t>
+          <t>A 58068-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44903</v>
+        <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14345,7 +14373,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.1</v>
+        <v>10.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14382,14 +14410,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 58853-2022</t>
+          <t>A 58846-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14407,7 +14435,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14444,14 +14472,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 59737-2022</t>
+          <t>A 58853-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44908</v>
+        <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14463,8 +14491,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14501,14 +14534,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 59944-2022</t>
+          <t>A 59737-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44909</v>
+        <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14520,13 +14553,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14563,14 +14591,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 60803-2022</t>
+          <t>A 59944-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44914</v>
+        <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14582,8 +14610,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14620,14 +14653,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 159-2023</t>
+          <t>A 60803-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44928</v>
+        <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14639,13 +14672,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14682,14 +14710,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 160-2023</t>
+          <t>A 159-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14707,7 +14735,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14744,14 +14772,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 2228-2023</t>
+          <t>A 160-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44942</v>
+        <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14763,8 +14791,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14801,14 +14834,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 6047-2023</t>
+          <t>A 2228-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44964</v>
+        <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14820,13 +14853,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>0.2</v>
+        <v>6.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14863,14 +14891,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 7814-2023</t>
+          <t>A 6047-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44973</v>
+        <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14882,8 +14910,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14920,14 +14953,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 9466-2023</t>
+          <t>A 7814-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44981</v>
+        <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14939,13 +14972,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14982,14 +15010,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 11595-2023</t>
+          <t>A 9466-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44994</v>
+        <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15001,8 +15029,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15039,14 +15072,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 12065-2023</t>
+          <t>A 11595-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44997</v>
+        <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15059,7 +15092,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15096,14 +15129,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 16585-2023</t>
+          <t>A 12065-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45030</v>
+        <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15116,7 +15149,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15153,14 +15186,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 18037-2023</t>
+          <t>A 16585-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45040</v>
+        <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15173,7 +15206,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15210,14 +15243,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 18069-2023</t>
+          <t>A 18037-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15230,7 +15263,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15267,14 +15300,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 18817-2023</t>
+          <t>A 18069-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45043</v>
+        <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15287,7 +15320,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15324,14 +15357,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 19266-2023</t>
+          <t>A 18817-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45049</v>
+        <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15344,7 +15377,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15381,14 +15414,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 20302-2023</t>
+          <t>A 19266-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45056</v>
+        <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15401,7 +15434,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15438,14 +15471,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 20561-2023</t>
+          <t>A 20302-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15457,13 +15490,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15500,14 +15528,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 20493-2023</t>
+          <t>A 20561-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,8 +15547,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15557,14 +15590,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 20741-2023</t>
+          <t>A 20493-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45058</v>
+        <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15577,7 +15610,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15614,14 +15647,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 20927-2023</t>
+          <t>A 20741-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45061</v>
+        <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15634,7 +15667,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15671,14 +15704,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 21216-2023</t>
+          <t>A 20927-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45062</v>
+        <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15688,11 +15721,6 @@
       <c r="E250" t="inlineStr">
         <is>
           <t>ORSA</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -15733,14 +15761,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 21218-2023</t>
+          <t>A 21216-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15758,7 +15786,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15795,14 +15823,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 21560-2023</t>
+          <t>A 21218-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45063</v>
+        <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15848,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>19.1</v>
+        <v>0.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15857,14 +15885,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 22911-2023</t>
+          <t>A 21560-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45072</v>
+        <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15876,8 +15904,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>1.3</v>
+        <v>19.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15914,14 +15947,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 22902-2023</t>
+          <t>A 22911-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15967,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15971,14 +16004,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 23461-2023</t>
+          <t>A 22902-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +16024,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16028,14 +16061,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 23457-2023</t>
+          <t>A 23461-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16081,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16085,14 +16118,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 24126-2023</t>
+          <t>A 23457-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45079</v>
+        <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16104,13 +16137,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16147,14 +16175,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 24282-2023</t>
+          <t>A 24126-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16172,7 +16200,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16209,14 +16237,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 26285-2023</t>
+          <t>A 24282-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45091</v>
+        <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16228,8 +16256,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>16.7</v>
+        <v>2.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16266,14 +16299,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 26294-2023</t>
+          <t>A 26285-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16286,7 +16319,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.6</v>
+        <v>16.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16323,14 +16356,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 26301-2023</t>
+          <t>A 26294-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16343,7 +16376,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16380,14 +16413,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 27531-2023</t>
+          <t>A 26301-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,13 +16432,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>13.4</v>
+        <v>1.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16442,14 +16470,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 28196-2023</t>
+          <t>A 27531-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45099</v>
+        <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16463,11 +16491,11 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.4</v>
+        <v>13.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16504,14 +16532,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 28082-2023</t>
+          <t>A 28196-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16523,8 +16551,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16561,14 +16594,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 30474-2023</t>
+          <t>A 28082-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16581,7 +16614,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16618,14 +16651,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 28155-2023</t>
+          <t>A 30474-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16637,13 +16670,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>7.8</v>
+        <v>2.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16680,14 +16708,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 28195-2023</t>
+          <t>A 28155-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16705,7 +16733,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>10.3</v>
+        <v>7.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16742,14 +16770,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 30464-2023</t>
+          <t>A 28195-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16761,8 +16789,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>10.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16799,14 +16832,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 29041-2023</t>
+          <t>A 30464-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16819,7 +16852,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16856,14 +16889,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 30458-2023</t>
+          <t>A 29041-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45111</v>
+        <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16875,13 +16908,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16918,14 +16946,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 30382-2023</t>
+          <t>A 30458-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16943,7 +16971,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16980,14 +17008,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 30389-2023</t>
+          <t>A 30382-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17005,7 +17033,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17042,14 +17070,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 30392-2023</t>
+          <t>A 30389-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17067,7 +17095,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17104,14 +17132,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 31044-2023</t>
+          <t>A 30392-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45113</v>
+        <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17123,8 +17151,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17161,14 +17194,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 31031-2023</t>
+          <t>A 31044-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17180,13 +17213,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17223,14 +17251,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 31409-2023</t>
+          <t>A 31031-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45114</v>
+        <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17242,8 +17270,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17280,14 +17313,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 33753-2023</t>
+          <t>A 31409-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45120</v>
+        <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17300,7 +17333,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17337,14 +17370,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 32983-2023</t>
+          <t>A 33753-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45125</v>
+        <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17356,13 +17389,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17399,14 +17427,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 32988-2023</t>
+          <t>A 32983-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17424,7 +17452,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17461,14 +17489,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 33673-2023</t>
+          <t>A 32988-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45132</v>
+        <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17480,8 +17508,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17518,14 +17551,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 33977-2023</t>
+          <t>A 33673-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45134</v>
+        <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17538,7 +17571,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17575,14 +17608,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 34125-2023</t>
+          <t>A 33977-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45135</v>
+        <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17595,7 +17628,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17632,14 +17665,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 35235-2023</t>
+          <t>A 34125-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45145</v>
+        <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17652,7 +17685,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17689,14 +17722,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 35477-2023</t>
+          <t>A 35235-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45146</v>
+        <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17709,7 +17742,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>7.7</v>
+        <v>0.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17746,14 +17779,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 36093-2023</t>
+          <t>A 35477-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45149</v>
+        <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17765,13 +17798,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G285" t="n">
-        <v>1.9</v>
+        <v>7.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17808,14 +17836,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 36883-2023</t>
+          <t>A 36093-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45154</v>
+        <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17827,8 +17855,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G286" t="n">
-        <v>9.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17872,7 +17905,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17934,7 +17967,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44714</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45154</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1062,14 +1062,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 22647-2022</t>
+          <t>A 36883-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44714</v>
+        <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1081,29 +1081,24 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
@@ -1111,15 +1106,111 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Urskogsporing
+Garnlav
+Mörk kolflarnlav
+Tretåig hackspett
+Vaddporing
+Vedflamlav
+Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 36883-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 36883-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 36883-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 36883-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 36883-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 36883-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 22647-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44714</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
         <v>6</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Dvärgbägarlav
@@ -1129,125 +1220,35 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 22647-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 22647-2022.png")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/knärot/A 22647-2022.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 22647-2022.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 22647-2022.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 22647-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 22647-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 36883-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45154</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>6</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>6</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Mörk kolflarnlav
-Tretåig hackspett
-Vaddporing
-Vedflamlav
-Violettgrå tagellav</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 36883-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 36883-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 36883-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 36883-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 36883-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 36883-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1258,7 +1259,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,7 +1347,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1440,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1527,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1612,7 +1613,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1704,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1789,7 +1790,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,7 +1876,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1966,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2141,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2226,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,7 +2316,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2405,7 +2406,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2463,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2519,7 +2520,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2576,7 +2577,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2633,7 +2634,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2695,7 +2696,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2757,7 +2758,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2819,7 +2820,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2881,7 +2882,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2938,7 +2939,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2995,7 +2996,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3052,7 +3053,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3109,7 +3110,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3166,7 +3167,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3223,7 +3224,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3280,7 +3281,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3337,7 +3338,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3394,7 +3395,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3451,7 +3452,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3508,7 +3509,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3565,7 +3566,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3622,7 +3623,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3679,7 +3680,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3736,7 +3737,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3793,7 +3794,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3850,7 +3851,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3907,7 +3908,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3964,7 +3965,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4021,7 +4022,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4078,7 +4079,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4135,7 +4136,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4192,7 +4193,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4249,7 +4250,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4306,7 +4307,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4363,7 +4364,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4420,7 +4421,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4477,7 +4478,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4534,7 +4535,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4591,7 +4592,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4648,7 +4649,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4705,7 +4706,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4767,7 +4768,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4829,7 +4830,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4891,7 +4892,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4954,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5015,7 +5016,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5077,7 +5078,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5134,7 +5135,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5191,7 +5192,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5248,7 +5249,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5305,7 +5306,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5362,7 +5363,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5419,7 +5420,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5476,7 +5477,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5533,7 +5534,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5590,7 +5591,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5647,7 +5648,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5704,7 +5705,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5766,7 +5767,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5828,7 +5829,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5885,7 +5886,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5942,7 +5943,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5999,7 +6000,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6056,7 +6057,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6113,7 +6114,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6170,7 +6171,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6227,7 +6228,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6284,7 +6285,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6341,7 +6342,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6398,7 +6399,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6455,7 +6456,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6512,7 +6513,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6569,7 +6570,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6626,7 +6627,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6683,7 +6684,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6740,7 +6741,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6797,7 +6798,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6859,7 +6860,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6916,7 +6917,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6978,7 +6979,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7035,7 +7036,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7092,7 +7093,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7149,7 +7150,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7211,7 +7212,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7273,7 +7274,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7335,7 +7336,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7392,7 +7393,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7454,7 +7455,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7516,7 +7517,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7573,7 +7574,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7635,7 +7636,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7698,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7759,7 +7760,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7816,7 +7817,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7873,7 +7874,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7930,7 +7931,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7987,7 +7988,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8044,7 +8045,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8101,7 +8102,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8163,7 +8164,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8220,7 +8221,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8277,7 +8278,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8334,7 +8335,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8391,7 +8392,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8453,7 +8454,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8510,7 +8511,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8567,7 +8568,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8624,7 +8625,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8681,7 +8682,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8738,7 +8739,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8795,7 +8796,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8857,7 +8858,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8914,7 +8915,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8976,7 +8977,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9033,7 +9034,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9090,7 +9091,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9148,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9205,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9262,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9323,7 +9324,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9380,7 +9381,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9437,7 +9438,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9494,7 +9495,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9551,7 +9552,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9609,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9665,7 +9666,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9722,7 +9723,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9779,7 +9780,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9836,7 +9837,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9893,7 +9894,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9950,7 +9951,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10007,7 +10008,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10064,7 +10065,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10121,7 +10122,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10178,7 +10179,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10235,7 +10236,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10292,7 +10293,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10349,7 +10350,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10406,7 +10407,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10463,7 +10464,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10520,7 +10521,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10582,7 +10583,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10639,7 +10640,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10696,7 +10697,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10753,7 +10754,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10815,7 +10816,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10872,7 +10873,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10929,7 +10930,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10991,7 +10992,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11053,7 +11054,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11110,7 +11111,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11167,7 +11168,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11229,7 +11230,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11291,7 +11292,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11348,7 +11349,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11405,7 +11406,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11462,7 +11463,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11519,7 +11520,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11576,7 +11577,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11633,7 +11634,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11690,7 +11691,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11747,7 +11748,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11804,7 +11805,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11861,7 +11862,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11918,7 +11919,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11980,7 +11981,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12037,7 +12038,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12094,7 +12095,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12156,7 +12157,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12213,7 +12214,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12275,7 +12276,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12337,7 +12338,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12394,7 +12395,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12456,7 +12457,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12513,7 +12514,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12570,7 +12571,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12627,7 +12628,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12684,7 +12685,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12741,7 +12742,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12798,7 +12799,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12860,7 +12861,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12917,7 +12918,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12979,7 +12980,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13041,7 +13042,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13098,7 +13099,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13155,7 +13156,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13217,7 +13218,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13279,7 +13280,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13336,7 +13337,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13398,7 +13399,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13460,7 +13461,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13522,7 +13523,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13579,7 +13580,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13636,7 +13637,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13693,7 +13694,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13755,7 +13756,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13817,7 +13818,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13874,7 +13875,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13936,7 +13937,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13998,7 +13999,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14055,7 +14056,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14117,7 +14118,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14179,7 +14180,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14236,7 +14237,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14293,7 +14294,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14355,7 +14356,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14417,7 +14418,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14480,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14541,7 +14542,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14598,7 +14599,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14660,7 +14661,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14717,7 +14718,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14779,7 +14780,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14841,7 +14842,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14898,7 +14899,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14960,7 +14961,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15017,7 +15018,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15079,7 +15080,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15136,7 +15137,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15193,7 +15194,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15250,7 +15251,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15307,7 +15308,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15364,7 +15365,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15421,7 +15422,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15478,7 +15479,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15535,7 +15536,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15597,7 +15598,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15654,7 +15655,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15711,7 +15712,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15768,7 +15769,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15830,7 +15831,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15892,7 +15893,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15954,7 +15955,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16011,7 +16012,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16068,7 +16069,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16125,7 +16126,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16182,7 +16183,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16244,7 +16245,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16306,7 +16307,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16363,7 +16364,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16420,7 +16421,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16477,7 +16478,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16539,7 +16540,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16601,7 +16602,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16658,7 +16659,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16715,7 +16716,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16777,7 +16778,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16839,7 +16840,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16896,7 +16897,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16953,7 +16954,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17015,7 +17016,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17077,7 +17078,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17139,7 +17140,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17201,7 +17202,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17258,7 +17259,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17320,7 +17321,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17377,7 +17378,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17434,7 +17435,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17496,7 +17497,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17558,7 +17559,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17615,7 +17616,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17672,7 +17673,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17729,7 +17730,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17786,7 +17787,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17843,7 +17844,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17905,7 +17906,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17967,7 +17968,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>9</v>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -637,6 +637,7 @@
 Gullgröppa
 Mindre märgborre
 Plattlummer
+Ramaria neoformosa
 Tallfingersvamp
 Vedticka</t>
         </is>
@@ -680,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1440,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1527,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1613,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1704,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1790,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2051,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2407,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2464,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2520,7 +2521,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,7 +2578,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2634,7 +2635,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2696,7 +2697,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2758,7 +2759,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2820,7 +2821,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2882,7 +2883,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2939,7 +2940,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2996,7 +2997,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3053,7 +3054,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3110,7 +3111,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3167,7 +3168,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3224,7 +3225,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3281,7 +3282,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3338,7 +3339,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3395,7 +3396,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3452,7 +3453,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3509,7 +3510,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3566,7 +3567,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3623,7 +3624,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3680,7 +3681,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3737,7 +3738,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3794,7 +3795,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3851,7 +3852,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3908,7 +3909,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3965,7 +3966,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4022,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4079,7 +4080,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4136,7 +4137,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4193,7 +4194,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4250,7 +4251,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4307,7 +4308,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4364,7 +4365,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4421,7 +4422,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4478,7 +4479,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4535,7 +4536,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4592,7 +4593,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4649,7 +4650,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4706,7 +4707,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4768,7 +4769,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4830,7 +4831,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4892,7 +4893,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4954,7 +4955,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5017,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5078,7 +5079,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5135,7 +5136,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5192,7 +5193,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5249,7 +5250,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5306,7 +5307,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5363,7 +5364,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5420,7 +5421,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5478,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5535,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5592,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5649,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5706,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5767,7 +5768,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5829,7 +5830,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5886,7 +5887,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5943,7 +5944,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6000,7 +6001,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6057,7 +6058,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6114,7 +6115,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6171,7 +6172,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6229,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6285,7 +6286,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6342,7 +6343,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6399,7 +6400,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6456,7 +6457,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6513,7 +6514,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6570,7 +6571,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6627,7 +6628,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6684,7 +6685,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6741,7 +6742,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6799,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6860,7 +6861,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6918,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6980,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7037,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7094,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7151,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7213,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7274,7 +7275,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7336,7 +7337,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7393,7 +7394,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7455,7 +7456,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7517,7 +7518,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7574,7 +7575,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7636,7 +7637,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7698,7 +7699,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7760,7 +7761,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7817,7 +7818,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7874,7 +7875,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7931,7 +7932,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7988,7 +7989,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8045,7 +8046,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8102,7 +8103,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8164,7 +8165,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8221,7 +8222,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8278,7 +8279,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8335,7 +8336,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8392,7 +8393,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8454,7 +8455,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8511,7 +8512,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8568,7 +8569,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8625,7 +8626,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8682,7 +8683,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8739,7 +8740,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8796,7 +8797,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8858,7 +8859,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8915,7 +8916,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8977,7 +8978,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9034,7 +9035,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9091,7 +9092,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9148,7 +9149,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9205,7 +9206,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9262,7 +9263,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9324,7 +9325,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9381,7 +9382,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9438,7 +9439,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9495,7 +9496,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9552,7 +9553,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9609,7 +9610,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9666,7 +9667,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9723,7 +9724,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9780,7 +9781,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9837,7 +9838,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9894,7 +9895,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9951,7 +9952,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10008,7 +10009,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10065,7 +10066,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10122,7 +10123,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10179,7 +10180,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10236,7 +10237,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10293,7 +10294,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10350,7 +10351,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10407,7 +10408,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10464,7 +10465,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10521,7 +10522,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10583,7 +10584,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10640,7 +10641,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10697,7 +10698,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10754,7 +10755,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10816,7 +10817,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10873,7 +10874,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10930,7 +10931,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10992,7 +10993,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11054,7 +11055,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11111,7 +11112,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11168,7 +11169,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11230,7 +11231,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11292,7 +11293,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11349,7 +11350,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11406,7 +11407,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11463,7 +11464,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11520,7 +11521,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11577,7 +11578,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11634,7 +11635,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11691,7 +11692,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11748,7 +11749,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11805,7 +11806,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11862,7 +11863,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11919,7 +11920,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11981,7 +11982,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12038,7 +12039,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12095,7 +12096,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12157,7 +12158,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12214,7 +12215,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12276,7 +12277,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12338,7 +12339,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12395,7 +12396,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12457,7 +12458,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12514,7 +12515,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12571,7 +12572,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12628,7 +12629,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12685,7 +12686,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12742,7 +12743,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12799,7 +12800,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12861,7 +12862,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12918,7 +12919,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12980,7 +12981,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13042,7 +13043,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13099,7 +13100,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13156,7 +13157,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13218,7 +13219,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13280,7 +13281,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13337,7 +13338,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13399,7 +13400,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13461,7 +13462,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13523,7 +13524,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13580,7 +13581,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13637,7 +13638,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13694,7 +13695,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13757,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13818,7 +13819,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13875,7 +13876,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13937,7 +13938,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13999,7 +14000,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14056,7 +14057,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14118,7 +14119,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14180,7 +14181,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14237,7 +14238,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14294,7 +14295,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14356,7 +14357,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14418,7 +14419,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14480,7 +14481,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14542,7 +14543,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14599,7 +14600,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14661,7 +14662,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14718,7 +14719,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14780,7 +14781,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14842,7 +14843,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14899,7 +14900,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14961,7 +14962,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15018,7 +15019,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15080,7 +15081,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15137,7 +15138,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15194,7 +15195,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15251,7 +15252,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15308,7 +15309,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15365,7 +15366,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15422,7 +15423,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15479,7 +15480,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15536,7 +15537,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15598,7 +15599,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15655,7 +15656,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15712,7 +15713,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15769,7 +15770,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15831,7 +15832,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15893,7 +15894,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15955,7 +15956,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16012,7 +16013,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16069,7 +16070,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16126,7 +16127,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16183,7 +16184,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16245,7 +16246,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16307,7 +16308,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16364,7 +16365,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16421,7 +16422,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16478,7 +16479,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16540,7 +16541,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16602,7 +16603,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16659,7 +16660,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16716,7 +16717,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16778,7 +16779,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16840,7 +16841,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16897,7 +16898,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16954,7 +16955,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17016,7 +17017,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17078,7 +17079,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17140,7 +17141,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17202,7 +17203,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17259,7 +17260,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17321,7 +17322,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17378,7 +17379,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17435,7 +17436,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17497,7 +17498,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17559,7 +17560,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17616,7 +17617,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17673,7 +17674,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17730,7 +17731,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17787,7 +17788,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17844,7 +17845,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17906,7 +17907,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17968,7 +17969,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -643,31 +643,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 1135-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 1135-2023.xlsx", "A 1135-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 1135-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 1135-2023.png", "A 1135-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/knärot/A 1135-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/knärot/A 1135-2023.png", "A 1135-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 1135-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 1135-2023.docx", "A 1135-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 1135-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 1135-2023.docx", "A 1135-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 1135-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 1135-2023.docx", "A 1135-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 1135-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 1135-2023.docx", "A 1135-2023")</f>
         <v/>
       </c>
     </row>
@@ -681,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,27 +748,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 62470-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 62470-2019.xlsx", "A 62470-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 62470-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 62470-2019.png", "A 62470-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 62470-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 62470-2019.docx", "A 62470-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 62470-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 62470-2019.docx", "A 62470-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 62470-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 62470-2019.docx", "A 62470-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 62470-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 62470-2019.docx", "A 62470-2019")</f>
         <v/>
       </c>
     </row>
@@ -782,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,27 +849,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 31670-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 31670-2023.xlsx", "A 31670-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 31670-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 31670-2023.png", "A 31670-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 31670-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 31670-2023.docx", "A 31670-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 31670-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 31670-2023.docx", "A 31670-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 31670-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 31670-2023.docx", "A 31670-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 31670-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 31670-2023.docx", "A 31670-2023")</f>
         <v/>
       </c>
     </row>
@@ -883,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,27 +943,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 36038-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 36038-2023.xlsx", "A 36038-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 36038-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 36038-2023.png", "A 36038-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 36038-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 36038-2023.docx", "A 36038-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 36038-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 36038-2023.docx", "A 36038-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 36038-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 36038-2023.docx", "A 36038-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 36038-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 36038-2023.docx", "A 36038-2023")</f>
         <v/>
       </c>
     </row>
@@ -977,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,27 +1036,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 50972-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 50972-2020.xlsx", "A 50972-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 50972-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 50972-2020.png", "A 50972-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 50972-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 50972-2020.docx", "A 50972-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 50972-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 50972-2020.docx", "A 50972-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 50972-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 50972-2020.docx", "A 50972-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 50972-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 50972-2020.docx", "A 50972-2020")</f>
         <v/>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,27 +1127,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 36883-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 36883-2023.xlsx", "A 36883-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 36883-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 36883-2023.png", "A 36883-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 36883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 36883-2023.docx", "A 36883-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 36883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 36883-2023.docx", "A 36883-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 36883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 36883-2023.docx", "A 36883-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 36883-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 36883-2023.docx", "A 36883-2023")</f>
         <v/>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,31 +1222,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 22647-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 22647-2022.xlsx", "A 22647-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 22647-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 22647-2022.png", "A 22647-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/knärot/A 22647-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/knärot/A 22647-2022.png", "A 22647-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 22647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 22647-2022.docx", "A 22647-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 22647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 22647-2022.docx", "A 22647-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 22647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 22647-2022.docx", "A 22647-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 22647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 22647-2022.docx", "A 22647-2022")</f>
         <v/>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,27 +1314,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 19130-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 19130-2022.xlsx", "A 19130-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 19130-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 19130-2022.png", "A 19130-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 19130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 19130-2022.docx", "A 19130-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 19130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 19130-2022.docx", "A 19130-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 19130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 19130-2022.docx", "A 19130-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 19130-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 19130-2022.docx", "A 19130-2022")</f>
         <v/>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,27 +1407,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 33366-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 33366-2023.xlsx", "A 33366-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 33366-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 33366-2023.png", "A 33366-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 33366-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 33366-2023.docx", "A 33366-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 33366-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 33366-2023.docx", "A 33366-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 33366-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 33366-2023.docx", "A 33366-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 33366-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 33366-2023.docx", "A 33366-2023")</f>
         <v/>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,27 +1494,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 42651-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 42651-2020.xlsx", "A 42651-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 42651-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 42651-2020.png", "A 42651-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 42651-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 42651-2020.docx", "A 42651-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 42651-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 42651-2020.docx", "A 42651-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 42651-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 42651-2020.docx", "A 42651-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 42651-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 42651-2020.docx", "A 42651-2020")</f>
         <v/>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,27 +1580,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 63810-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 63810-2021.xlsx", "A 63810-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 63810-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 63810-2021.png", "A 63810-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 63810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 63810-2021.docx", "A 63810-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 63810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 63810-2021.docx", "A 63810-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 63810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 63810-2021.docx", "A 63810-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 63810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 63810-2021.docx", "A 63810-2021")</f>
         <v/>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,27 +1671,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 20914-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 20914-2022.xlsx", "A 20914-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 20914-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 20914-2022.png", "A 20914-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 20914-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 20914-2022.docx", "A 20914-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 20914-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 20914-2022.docx", "A 20914-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 20914-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 20914-2022.docx", "A 20914-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 20914-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 20914-2022.docx", "A 20914-2022")</f>
         <v/>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,27 +1757,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 48343-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 48343-2022.xlsx", "A 48343-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 48343-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 48343-2022.png", "A 48343-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 48343-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 48343-2022.docx", "A 48343-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 48343-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 48343-2022.docx", "A 48343-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 48343-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 48343-2022.docx", "A 48343-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 48343-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 48343-2022.docx", "A 48343-2022")</f>
         <v/>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,27 +1843,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 53629-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 53629-2022.xlsx", "A 53629-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 53629-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 53629-2022.png", "A 53629-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 53629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 53629-2022.docx", "A 53629-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 53629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 53629-2022.docx", "A 53629-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 53629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 53629-2022.docx", "A 53629-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 53629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 53629-2022.docx", "A 53629-2022")</f>
         <v/>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1933,27 +1933,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 34447-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 34447-2018.xlsx", "A 34447-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 34447-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 34447-2018.png", "A 34447-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 34447-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 34447-2018.docx", "A 34447-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 34447-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 34447-2018.docx", "A 34447-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 34447-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 34447-2018.docx", "A 34447-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 34447-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 34447-2018.docx", "A 34447-2018")</f>
         <v/>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2018,27 +2018,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 38211-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 38211-2020.xlsx", "A 38211-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 38211-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 38211-2020.png", "A 38211-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 38211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 38211-2020.docx", "A 38211-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 38211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 38211-2020.docx", "A 38211-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 38211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 38211-2020.docx", "A 38211-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 38211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 38211-2020.docx", "A 38211-2020")</f>
         <v/>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2108,27 +2108,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 43037-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 43037-2022.xlsx", "A 43037-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 43037-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 43037-2022.png", "A 43037-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 43037-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 43037-2022.docx", "A 43037-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 43037-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 43037-2022.docx", "A 43037-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 43037-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 43037-2022.docx", "A 43037-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 43037-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 43037-2022.docx", "A 43037-2022")</f>
         <v/>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,27 +2193,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 29044-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 29044-2023.xlsx", "A 29044-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 29044-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 29044-2023.png", "A 29044-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 29044-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 29044-2023.docx", "A 29044-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 29044-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 29044-2023.docx", "A 29044-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 29044-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 29044-2023.docx", "A 29044-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 29044-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 29044-2023.docx", "A 29044-2023")</f>
         <v/>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,27 +2283,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 35112-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 35112-2023.xlsx", "A 35112-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 35112-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 35112-2023.png", "A 35112-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 35112-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 35112-2023.docx", "A 35112-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 35112-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 35112-2023.docx", "A 35112-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 35112-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 35112-2023.docx", "A 35112-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 35112-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 35112-2023.docx", "A 35112-2023")</f>
         <v/>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2373,27 +2373,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 37887-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 37887-2023.xlsx", "A 37887-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 37887-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 37887-2023.png", "A 37887-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 37887-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 37887-2023.docx", "A 37887-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 37887-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 37887-2023.docx", "A 37887-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 37887-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 37887-2023.docx", "A 37887-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 37887-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 37887-2023.docx", "A 37887-2023")</f>
         <v/>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y288"/>
+  <dimension ref="A1:Y289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43381</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43418</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43472</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43479</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43489</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43493</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43494</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43517</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43529</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43609</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43619</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43626</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43640</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43643</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43655</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43661</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43664</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43676</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43682</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43713</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43717</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43738</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43765</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43774</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>43810</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>43811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43816</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>43818</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>43845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>43846</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>43865</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43871</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43873</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43906</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43909</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43923</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43937</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43948</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43951</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43983</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43997</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>44032</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>44039</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44053</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>44067</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44071</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>44102</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44116</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44141</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44158</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>44176</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>44179</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44180</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44182</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44200</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44218</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44224</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44300</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44307</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44322</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44336</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>44349</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>44350</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>44351</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44355</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>44356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>44361</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>44377</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44382</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44461</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44466</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44467</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44469</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>44477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>44483</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>44496</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44532</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44536</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44545</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44564</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44588</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44620</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44623</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44627</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>44693</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>44699</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44715</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>44720</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>44722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>44763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>44777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44788</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44844</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44857</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44866</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44867</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44869</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>44872</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44900</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>44914</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>44964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44973</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44981</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44997</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>45030</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>45040</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>45043</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45049</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>45056</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>45057</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45058</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45062</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45072</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45076</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45079</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>45091</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45097</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>45099</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45113</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45114</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45120</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45135</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45149</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>45159</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
       </c>
       <c r="R287" s="2" t="inlineStr"/>
     </row>
-    <row r="288">
+    <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
           <t>A 37770-2023</t>
@@ -17969,7 +17969,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18015,6 +18015,63 @@
         <v>0</v>
       </c>
       <c r="R288" s="2" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>A 44600-2023</t>
+        </is>
+      </c>
+      <c r="B289" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C289" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y289"/>
+  <dimension ref="A1:Y291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2400,14 +2400,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34389-2018</t>
+          <t>A 46179-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43319</v>
+        <v>45196</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2450,21 +2450,49 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/artfynd/A 46179-2023.xlsx", "A 46179-2023")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/kartor/A 46179-2023.png", "A 46179-2023")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomål/A 46179-2023.docx", "A 46179-2023")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/klagomålsmail/A 46179-2023.docx", "A 46179-2023")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsyn/A 46179-2023.docx", "A 46179-2023")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORSA/tillsynsmail/A 46179-2023.docx", "A 46179-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34414-2018</t>
+          <t>A 34389-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2505,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2514,14 +2542,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 45676-2018</t>
+          <t>A 34414-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43364</v>
+        <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2562,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2571,14 +2599,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 48004-2018</t>
+          <t>A 45676-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43371</v>
+        <v>43364</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2619,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>22.7</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2628,14 +2656,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 59675-2018</t>
+          <t>A 48004-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43374</v>
+        <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2647,13 +2675,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>22.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2690,14 +2713,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 59703-2018</t>
+          <t>A 59675-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43376</v>
+        <v>43374</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2715,7 +2738,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2752,14 +2775,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 59736-2018</t>
+          <t>A 59703-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43381</v>
+        <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2777,7 +2800,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2814,14 +2837,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 59761-2018</t>
+          <t>A 59736-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2839,7 +2862,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2876,14 +2899,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 62061-2018</t>
+          <t>A 59761-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43416</v>
+        <v>43381</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2893,6 +2916,11 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>ORSA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -2933,14 +2961,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 62359-2018</t>
+          <t>A 62061-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2953,7 +2981,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2990,14 +3018,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62063-2018</t>
+          <t>A 62359-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3010,7 +3038,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>8.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3047,14 +3075,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62054-2018</t>
+          <t>A 62063-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3067,7 +3095,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3104,14 +3132,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62052-2018</t>
+          <t>A 62054-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3124,7 +3152,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3161,14 +3189,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 63134-2018</t>
+          <t>A 62052-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43418</v>
+        <v>43416</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3181,7 +3209,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3218,14 +3246,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 65400-2018</t>
+          <t>A 63134-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43432</v>
+        <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3238,7 +3266,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3275,14 +3303,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 65508-2018</t>
+          <t>A 65400-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43433</v>
+        <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3295,7 +3323,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3332,14 +3360,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 932-2019</t>
+          <t>A 65508-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43472</v>
+        <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3352,7 +3380,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3389,14 +3417,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 1243-2019</t>
+          <t>A 932-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3409,7 +3437,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3446,14 +3474,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 4143-2019</t>
+          <t>A 1243-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43476</v>
+        <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3466,7 +3494,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3503,14 +3531,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4145-2019</t>
+          <t>A 4143-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3523,7 +3551,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3560,14 +3588,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 4484-2019</t>
+          <t>A 4145-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43479</v>
+        <v>43476</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3580,7 +3608,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3617,14 +3645,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 4349-2019</t>
+          <t>A 4484-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43483</v>
+        <v>43479</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3637,7 +3665,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3674,14 +3702,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7168-2019</t>
+          <t>A 4349-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43489</v>
+        <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3694,7 +3722,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3731,14 +3759,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7184-2019</t>
+          <t>A 7168-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3751,7 +3779,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3788,14 +3816,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 7130-2019</t>
+          <t>A 7184-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3808,7 +3836,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>20.4</v>
+        <v>4.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3845,14 +3873,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6172-2019</t>
+          <t>A 7130-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43493</v>
+        <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3865,7 +3893,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>20.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3902,14 +3930,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 6429-2019</t>
+          <t>A 6172-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43494</v>
+        <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3922,7 +3950,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3959,14 +3987,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8627-2019</t>
+          <t>A 6429-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43501</v>
+        <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3979,7 +4007,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4016,14 +4044,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8738-2019</t>
+          <t>A 8627-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43502</v>
+        <v>43501</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4036,7 +4064,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4073,14 +4101,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8732-2019</t>
+          <t>A 8738-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4093,7 +4121,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4130,14 +4158,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8730-2019</t>
+          <t>A 8732-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4150,7 +4178,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4187,14 +4215,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11614-2019</t>
+          <t>A 8730-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43517</v>
+        <v>43502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4207,7 +4235,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4244,14 +4272,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 14094-2019</t>
+          <t>A 11614-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43529</v>
+        <v>43517</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4264,7 +4292,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4301,14 +4329,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 14089-2019</t>
+          <t>A 14094-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4321,7 +4349,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4358,14 +4386,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15701-2019</t>
+          <t>A 14089-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43543</v>
+        <v>43529</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4378,7 +4406,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4415,14 +4443,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 16961-2019</t>
+          <t>A 15701-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43550</v>
+        <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4435,7 +4463,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4472,14 +4500,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16938-2019</t>
+          <t>A 16961-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4492,7 +4520,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4529,14 +4557,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16956-2019</t>
+          <t>A 16938-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4549,7 +4577,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>19.3</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4586,14 +4614,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16958-2019</t>
+          <t>A 16956-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4606,7 +4634,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>17.7</v>
+        <v>19.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4643,14 +4671,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16914-2019</t>
+          <t>A 16958-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4663,7 +4691,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>17.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4700,14 +4728,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26119-2019</t>
+          <t>A 16914-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43609</v>
+        <v>43550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4719,13 +4747,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4762,14 +4785,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27655-2019</t>
+          <t>A 26119-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43619</v>
+        <v>43609</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4783,11 +4806,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>26.9</v>
+        <v>4.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4824,14 +4847,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28464-2019</t>
+          <t>A 27655-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43626</v>
+        <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4849,7 +4872,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>26.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4886,14 +4909,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31099-2019</t>
+          <t>A 28464-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43640</v>
+        <v>43626</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4907,11 +4930,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4948,14 +4971,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31956-2019</t>
+          <t>A 31099-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43643</v>
+        <v>43640</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4969,11 +4992,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5010,14 +5033,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32094-2019</t>
+          <t>A 31956-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,11 +5054,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>19.2</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5072,14 +5095,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32933-2019</t>
+          <t>A 32094-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43648</v>
+        <v>43643</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5091,8 +5114,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>6.3</v>
+        <v>19.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5129,14 +5157,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34257-2019</t>
+          <t>A 32933-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43655</v>
+        <v>43648</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5149,7 +5177,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5186,14 +5214,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36274-2019</t>
+          <t>A 34257-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43661</v>
+        <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5206,7 +5234,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5243,14 +5271,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35663-2019</t>
+          <t>A 36274-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43664</v>
+        <v>43661</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5263,7 +5291,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5300,14 +5328,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 37001-2019</t>
+          <t>A 35663-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43676</v>
+        <v>43664</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5320,7 +5348,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5357,14 +5385,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36989-2019</t>
+          <t>A 37001-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5377,7 +5405,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5414,14 +5442,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37809-2019</t>
+          <t>A 36989-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43682</v>
+        <v>43676</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5434,7 +5462,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5471,14 +5499,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38857-2019</t>
+          <t>A 37809-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43689</v>
+        <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5519,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5528,14 +5556,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38858-2019</t>
+          <t>A 38857-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5548,7 +5576,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5585,14 +5613,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45996-2019</t>
+          <t>A 38858-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43713</v>
+        <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5605,7 +5633,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5642,14 +5670,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45612-2019</t>
+          <t>A 45996-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43717</v>
+        <v>43713</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5662,7 +5690,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5699,14 +5727,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50528-2019</t>
+          <t>A 45612-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43735</v>
+        <v>43717</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5718,13 +5746,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5761,14 +5784,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50934-2019</t>
+          <t>A 50528-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43738</v>
+        <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5782,11 +5805,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>11.4</v>
+        <v>4.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5823,14 +5846,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55522-2019</t>
+          <t>A 50934-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43759</v>
+        <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5842,8 +5865,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>8.1</v>
+        <v>11.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5880,14 +5908,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 56862-2019</t>
+          <t>A 55522-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43765</v>
+        <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5900,7 +5928,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.4</v>
+        <v>8.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5937,14 +5965,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59007-2019</t>
+          <t>A 56862-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43774</v>
+        <v>43765</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5957,7 +5985,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5994,14 +6022,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 64389-2019</t>
+          <t>A 59007-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43797</v>
+        <v>43774</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6014,7 +6042,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6051,14 +6079,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 65252-2019</t>
+          <t>A 64389-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6071,7 +6099,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6108,14 +6136,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 66862-2019</t>
+          <t>A 65252-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43810</v>
+        <v>43797</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6128,7 +6156,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6165,14 +6193,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 67884-2019</t>
+          <t>A 66862-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6185,7 +6213,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6222,14 +6250,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 67295-2019</t>
+          <t>A 67884-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43811</v>
+        <v>43810</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6242,7 +6270,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6279,14 +6307,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 67878-2019</t>
+          <t>A 67295-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43816</v>
+        <v>43811</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6299,7 +6327,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6336,14 +6364,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 68558-2019</t>
+          <t>A 67878-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43818</v>
+        <v>43816</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6356,7 +6384,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6393,14 +6421,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 68376-2019</t>
+          <t>A 68558-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6450,14 +6478,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 1829-2020</t>
+          <t>A 68376-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43844</v>
+        <v>43818</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6470,7 +6498,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6507,14 +6535,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3337-2020</t>
+          <t>A 1829-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43845</v>
+        <v>43844</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6527,7 +6555,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6564,14 +6592,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 2166-2020</t>
+          <t>A 3337-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43846</v>
+        <v>43845</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6584,7 +6612,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>11.2</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6621,14 +6649,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 6597-2020</t>
+          <t>A 2166-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43865</v>
+        <v>43846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6641,7 +6669,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>11.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6678,14 +6706,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7249-2020</t>
+          <t>A 6597-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43871</v>
+        <v>43865</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6698,7 +6726,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6735,14 +6763,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7979-2020</t>
+          <t>A 7249-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6783,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6792,14 +6820,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 14947-2020</t>
+          <t>A 7979-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43906</v>
+        <v>43873</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6811,13 +6839,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>26.8</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6854,14 +6877,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14682-2020</t>
+          <t>A 14947-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6873,8 +6896,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>26.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6911,14 +6939,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17406-2020</t>
+          <t>A 14682-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43923</v>
+        <v>43909</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6930,13 +6958,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>89.8</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6973,14 +6996,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 19208-2020</t>
+          <t>A 17406-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43937</v>
+        <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6992,8 +7015,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>89.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7030,14 +7058,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 20590-2020</t>
+          <t>A 19208-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43948</v>
+        <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7050,7 +7078,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7087,14 +7115,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 21057-2020</t>
+          <t>A 20590-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43951</v>
+        <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7107,7 +7135,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7144,14 +7172,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 22785-2020</t>
+          <t>A 21057-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43964</v>
+        <v>43951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7163,13 +7191,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7206,14 +7229,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 23766-2020</t>
+          <t>A 22785-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43970</v>
+        <v>43964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7231,7 +7254,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7268,14 +7291,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 23746-2020</t>
+          <t>A 23766-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,11 +7312,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>13.9</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7330,14 +7353,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 25664-2020</t>
+          <t>A 23746-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>43983</v>
+        <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7349,8 +7372,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>5.3</v>
+        <v>13.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7387,14 +7415,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27945-2020</t>
+          <t>A 25664-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43997</v>
+        <v>43983</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7406,13 +7434,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7449,14 +7472,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30672-2020</t>
+          <t>A 27945-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44008</v>
+        <v>43997</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7474,7 +7497,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7511,14 +7534,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34544-2020</t>
+          <t>A 30672-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44032</v>
+        <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7530,8 +7553,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7568,14 +7596,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34986-2020</t>
+          <t>A 34544-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44039</v>
+        <v>44032</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7587,13 +7615,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7630,14 +7653,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36822-2020</t>
+          <t>A 34986-2020</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44053</v>
+        <v>44039</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7655,7 +7678,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7692,14 +7715,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 36919-2020</t>
+          <t>A 36822-2020</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7717,7 +7740,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7754,14 +7777,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39969-2020</t>
+          <t>A 36919-2020</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44067</v>
+        <v>44053</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7773,8 +7796,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7811,14 +7839,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41079-2020</t>
+          <t>A 39969-2020</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44071</v>
+        <v>44067</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7831,7 +7859,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7868,14 +7896,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48956-2020</t>
+          <t>A 41079-2020</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44102</v>
+        <v>44071</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7888,7 +7916,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7925,14 +7953,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 48954-2020</t>
+          <t>A 48956-2020</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7945,7 +7973,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7982,14 +8010,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51094-2020</t>
+          <t>A 48954-2020</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44112</v>
+        <v>44102</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8002,7 +8030,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8039,14 +8067,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52495-2020</t>
+          <t>A 51094-2020</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44116</v>
+        <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8059,7 +8087,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8096,14 +8124,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 57765-2020</t>
+          <t>A 52495-2020</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44141</v>
+        <v>44116</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8115,13 +8143,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8158,14 +8181,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58556-2020</t>
+          <t>A 57765-2020</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44145</v>
+        <v>44141</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8177,8 +8200,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8215,14 +8243,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61699-2020</t>
+          <t>A 58556-2020</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44158</v>
+        <v>44145</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8235,7 +8263,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8272,14 +8300,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 63374-2020</t>
+          <t>A 61699-2020</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8292,7 +8320,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8329,14 +8357,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 63367-2020</t>
+          <t>A 63374-2020</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8349,7 +8377,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8386,14 +8414,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62379-2020</t>
+          <t>A 63367-2020</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8405,13 +8433,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8448,14 +8471,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 63543-2020</t>
+          <t>A 62379-2020</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44165</v>
+        <v>44160</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,8 +8490,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8505,14 +8533,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 66323-2020</t>
+          <t>A 63543-2020</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44176</v>
+        <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8525,7 +8553,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8562,14 +8590,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 66567-2020</t>
+          <t>A 66323-2020</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44179</v>
+        <v>44176</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8582,7 +8610,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7.8</v>
+        <v>3.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8619,14 +8647,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 66593-2020</t>
+          <t>A 66567-2020</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8639,7 +8667,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8676,14 +8704,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 66536-2020</t>
+          <t>A 66593-2020</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8696,7 +8724,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8733,14 +8761,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 66533-2020</t>
+          <t>A 66536-2020</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8753,7 +8781,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8790,14 +8818,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 67189-2020</t>
+          <t>A 66533-2020</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8809,13 +8837,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8852,14 +8875,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 67834-2020</t>
+          <t>A 67189-2020</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8871,8 +8894,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8909,14 +8937,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 67911-2020</t>
+          <t>A 67834-2020</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8928,13 +8956,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8971,14 +8994,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 67929-2020</t>
+          <t>A 67911-2020</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8990,8 +9013,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>8.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9028,14 +9056,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 67755-2020</t>
+          <t>A 67929-2020</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9048,7 +9076,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9085,14 +9113,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 67842-2020</t>
+          <t>A 67755-2020</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9105,7 +9133,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>10.6</v>
+        <v>7.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9142,14 +9170,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 67935-2020</t>
+          <t>A 67842-2020</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9162,7 +9190,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>10.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9199,14 +9227,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 67950-2020</t>
+          <t>A 67935-2020</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9219,7 +9247,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9256,14 +9284,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 67971-2020</t>
+          <t>A 67950-2020</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9275,13 +9303,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9318,14 +9341,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 112-2021</t>
+          <t>A 67971-2020</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44200</v>
+        <v>44182</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9337,8 +9360,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9375,14 +9403,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 2112-2021</t>
+          <t>A 112-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44211</v>
+        <v>44200</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9395,7 +9423,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9432,14 +9460,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 3452-2021</t>
+          <t>A 2112-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44218</v>
+        <v>44211</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9452,7 +9480,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>12.5</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9489,14 +9517,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 3421-2021</t>
+          <t>A 3452-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9509,7 +9537,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.2</v>
+        <v>12.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9546,14 +9574,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 4108-2021</t>
+          <t>A 3421-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9566,7 +9594,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9603,14 +9631,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 4454-2021</t>
+          <t>A 4108-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9623,7 +9651,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9660,14 +9688,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 15914-2021</t>
+          <t>A 4454-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44287</v>
+        <v>44224</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9680,7 +9708,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9717,14 +9745,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 16270-2021</t>
+          <t>A 15914-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44292</v>
+        <v>44287</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9737,7 +9765,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9774,14 +9802,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 17718-2021</t>
+          <t>A 16270-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9794,7 +9822,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>8.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9831,14 +9859,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 18708-2021</t>
+          <t>A 17718-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44307</v>
+        <v>44300</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9851,7 +9879,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9888,14 +9916,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 21678-2021</t>
+          <t>A 18708-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44322</v>
+        <v>44307</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9908,7 +9936,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>11.4</v>
+        <v>2.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9945,14 +9973,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 24083-2021</t>
+          <t>A 21678-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44336</v>
+        <v>44322</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9965,7 +9993,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>11.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10002,14 +10030,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 25761-2021</t>
+          <t>A 24083-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10022,7 +10050,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10059,14 +10087,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 26831-2021</t>
+          <t>A 25761-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44349</v>
+        <v>44343</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10079,7 +10107,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10116,14 +10144,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 27146-2021</t>
+          <t>A 26831-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10136,7 +10164,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10173,14 +10201,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 27542-2021</t>
+          <t>A 27146-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10230,14 +10258,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 28259-2021</t>
+          <t>A 27542-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44355</v>
+        <v>44351</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10250,7 +10278,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10287,14 +10315,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 28630-2021</t>
+          <t>A 28259-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10307,7 +10335,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10344,14 +10372,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 29555-2021</t>
+          <t>A 28630-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44361</v>
+        <v>44356</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10364,7 +10392,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10401,14 +10429,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 30125-2021</t>
+          <t>A 29555-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10421,7 +10449,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10458,14 +10486,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33265-2021</t>
+          <t>A 30125-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44377</v>
+        <v>44363</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10478,7 +10506,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10515,14 +10543,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33480-2021</t>
+          <t>A 33265-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10534,13 +10562,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10577,14 +10600,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34708-2021</t>
+          <t>A 33480-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44382</v>
+        <v>44377</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,8 +10619,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10634,14 +10662,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 34713-2021</t>
+          <t>A 34708-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10654,7 +10682,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10691,14 +10719,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 36569-2021</t>
+          <t>A 34713-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44391</v>
+        <v>44382</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10711,7 +10739,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>8.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10748,14 +10776,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 39920-2021</t>
+          <t>A 36569-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10767,13 +10795,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10810,14 +10833,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 41295-2021</t>
+          <t>A 39920-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10829,8 +10852,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10867,14 +10895,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 41291-2021</t>
+          <t>A 41295-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10887,7 +10915,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10924,14 +10952,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 43391-2021</t>
+          <t>A 41291-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44432</v>
+        <v>44424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10943,13 +10971,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10986,14 +11009,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 47778-2021</t>
+          <t>A 43391-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44448</v>
+        <v>44432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11011,7 +11034,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>6.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11048,14 +11071,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 49028-2021</t>
+          <t>A 47778-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44453</v>
+        <v>44448</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11067,8 +11090,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11105,14 +11133,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 50905-2021</t>
+          <t>A 49028-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44460</v>
+        <v>44453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11125,7 +11153,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11162,14 +11190,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51278-2021</t>
+          <t>A 50905-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11181,13 +11209,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11224,14 +11247,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 51277-2021</t>
+          <t>A 51278-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11286,14 +11309,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52542-2021</t>
+          <t>A 51277-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44466</v>
+        <v>44461</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11305,8 +11328,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11343,14 +11371,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 53102-2021</t>
+          <t>A 52542-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11363,7 +11391,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11400,14 +11428,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53740-2021</t>
+          <t>A 53102-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44469</v>
+        <v>44467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11420,7 +11448,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11457,14 +11485,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 53745-2021</t>
+          <t>A 53740-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11477,7 +11505,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11514,14 +11542,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 55354-2021</t>
+          <t>A 53745-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44475</v>
+        <v>44469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11534,7 +11562,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11571,14 +11599,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56162-2021</t>
+          <t>A 55354-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11591,7 +11619,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11628,14 +11656,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 57271-2021</t>
+          <t>A 56162-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44483</v>
+        <v>44477</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11648,7 +11676,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11685,14 +11713,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59868-2021</t>
+          <t>A 57271-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44494</v>
+        <v>44483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11705,7 +11733,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11742,14 +11770,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60391-2021</t>
+          <t>A 59868-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44496</v>
+        <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11762,7 +11790,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11799,14 +11827,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 61005-2021</t>
+          <t>A 60391-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11819,7 +11847,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11856,14 +11884,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61000-2021</t>
+          <t>A 61005-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11876,7 +11904,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11913,14 +11941,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 68230-2021</t>
+          <t>A 61000-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44526</v>
+        <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11932,13 +11960,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11975,14 +11998,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 69721-2021</t>
+          <t>A 68230-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44532</v>
+        <v>44526</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11994,8 +12017,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12032,14 +12060,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 70332-2021</t>
+          <t>A 69721-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12052,7 +12080,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12089,14 +12117,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 71744-2021</t>
+          <t>A 70332-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44543</v>
+        <v>44536</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12108,13 +12136,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12151,14 +12174,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 72310-2021</t>
+          <t>A 71744-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12170,8 +12193,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12208,14 +12236,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 160-2022</t>
+          <t>A 72310-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44564</v>
+        <v>44545</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12227,13 +12255,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12270,14 +12293,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 169-2022</t>
+          <t>A 160-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12295,7 +12318,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12332,14 +12355,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 4144-2022</t>
+          <t>A 169-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44588</v>
+        <v>44564</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,8 +12374,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12389,14 +12417,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 9561-2022</t>
+          <t>A 4144-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44617</v>
+        <v>44588</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,13 +12436,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12451,14 +12474,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 9836-2022</t>
+          <t>A 9561-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44620</v>
+        <v>44617</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,8 +12493,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12508,14 +12536,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 10375-2022</t>
+          <t>A 9836-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12528,7 +12556,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12565,14 +12593,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 10398-2022</t>
+          <t>A 10375-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12585,7 +12613,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12622,14 +12650,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 10405-2022</t>
+          <t>A 10398-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12642,7 +12670,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12679,14 +12707,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 10832-2022</t>
+          <t>A 10405-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44627</v>
+        <v>44623</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12736,14 +12764,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 12704-2022</t>
+          <t>A 10832-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44641</v>
+        <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12756,7 +12784,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12793,14 +12821,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 19067-2022</t>
+          <t>A 12704-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44691</v>
+        <v>44641</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12812,13 +12840,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12855,14 +12878,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19505-2022</t>
+          <t>A 19067-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44693</v>
+        <v>44691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12874,8 +12897,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12912,14 +12940,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 20493-2022</t>
+          <t>A 19505-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44699</v>
+        <v>44693</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12931,13 +12959,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>61.7</v>
+        <v>2.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12974,14 +12997,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21905-2022</t>
+          <t>A 20493-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44711</v>
+        <v>44699</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12995,11 +13018,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.1</v>
+        <v>61.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13036,14 +13059,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 22813-2022</t>
+          <t>A 21905-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44715</v>
+        <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13055,8 +13078,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13093,14 +13121,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 23348-2022</t>
+          <t>A 22813-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44720</v>
+        <v>44715</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13113,7 +13141,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13150,14 +13178,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 23821-2022</t>
+          <t>A 23348-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13169,13 +13197,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13212,14 +13235,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 24651-2022</t>
+          <t>A 23821-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13237,7 +13260,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13274,14 +13297,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 29485-2022</t>
+          <t>A 24651-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44753</v>
+        <v>44727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13293,8 +13316,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13331,14 +13359,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 30690-2022</t>
+          <t>A 29485-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44763</v>
+        <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13350,13 +13378,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13393,14 +13416,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 31876-2022</t>
+          <t>A 30690-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44777</v>
+        <v>44763</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13441,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13455,14 +13478,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 33384-2022</t>
+          <t>A 31876-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44788</v>
+        <v>44777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13480,7 +13503,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13517,14 +13540,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 44033-2022</t>
+          <t>A 33384-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44838</v>
+        <v>44788</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13536,8 +13559,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13574,14 +13602,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 45272-2022</t>
+          <t>A 44033-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44844</v>
+        <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13594,7 +13622,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.3</v>
+        <v>5.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13631,14 +13659,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 47135-2022</t>
+          <t>A 45272-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44852</v>
+        <v>44844</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13651,7 +13679,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13688,14 +13716,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 47742-2022</t>
+          <t>A 47135-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44854</v>
+        <v>44852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13707,13 +13735,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13750,14 +13773,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 48131-2022</t>
+          <t>A 47742-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44857</v>
+        <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13775,7 +13798,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13812,14 +13835,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 50474-2022</t>
+          <t>A 48131-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44866</v>
+        <v>44857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13831,8 +13854,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13869,14 +13897,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 50728-2022</t>
+          <t>A 50474-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44867</v>
+        <v>44866</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13888,13 +13916,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13931,14 +13954,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 51395-2022</t>
+          <t>A 50728-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44869</v>
+        <v>44867</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13952,11 +13975,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>11.8</v>
+        <v>1.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13993,14 +14016,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 51864-2022</t>
+          <t>A 51395-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44872</v>
+        <v>44869</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14012,8 +14035,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>0.4</v>
+        <v>11.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14050,14 +14078,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 53693-2022</t>
+          <t>A 51864-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44880</v>
+        <v>44872</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14069,13 +14097,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14112,14 +14135,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 53709-2022</t>
+          <t>A 53693-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14137,7 +14160,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14174,14 +14197,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 53704-2022</t>
+          <t>A 53709-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14193,8 +14216,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>9.699999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14231,14 +14259,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 55691-2022</t>
+          <t>A 53704-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44888</v>
+        <v>44880</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14251,7 +14279,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14288,14 +14316,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 56578-2022</t>
+          <t>A 55691-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14307,13 +14335,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14350,14 +14373,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 58068-2022</t>
+          <t>A 56578-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44900</v>
+        <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14371,11 +14394,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>10.6</v>
+        <v>2.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14412,14 +14435,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 58846-2022</t>
+          <t>A 58068-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44903</v>
+        <v>44900</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14437,7 +14460,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.1</v>
+        <v>10.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14474,14 +14497,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 58853-2022</t>
+          <t>A 58846-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14499,7 +14522,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14536,14 +14559,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 59737-2022</t>
+          <t>A 58853-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44908</v>
+        <v>44903</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14555,8 +14578,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14593,14 +14621,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 59944-2022</t>
+          <t>A 59737-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44909</v>
+        <v>44908</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14612,13 +14640,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14655,14 +14678,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 60803-2022</t>
+          <t>A 59944-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44914</v>
+        <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14674,8 +14697,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14712,14 +14740,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 159-2023</t>
+          <t>A 60803-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44928</v>
+        <v>44914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14731,13 +14759,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14774,14 +14797,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 160-2023</t>
+          <t>A 159-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14799,7 +14822,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14836,14 +14859,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 2228-2023</t>
+          <t>A 160-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44942</v>
+        <v>44928</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14855,8 +14878,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14893,14 +14921,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 6047-2023</t>
+          <t>A 2228-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44964</v>
+        <v>44942</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14912,13 +14940,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>0.2</v>
+        <v>6.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14955,14 +14978,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 7814-2023</t>
+          <t>A 6047-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44973</v>
+        <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14974,8 +14997,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15012,14 +15040,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 9466-2023</t>
+          <t>A 7814-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44981</v>
+        <v>44973</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15031,13 +15059,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15074,14 +15097,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 11595-2023</t>
+          <t>A 9466-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44994</v>
+        <v>44981</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15093,8 +15116,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15131,14 +15159,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 12065-2023</t>
+          <t>A 11595-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44997</v>
+        <v>44994</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15151,7 +15179,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15188,14 +15216,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 16585-2023</t>
+          <t>A 12065-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45030</v>
+        <v>44997</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15208,7 +15236,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15245,14 +15273,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 18037-2023</t>
+          <t>A 16585-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45040</v>
+        <v>45030</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15265,7 +15293,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15302,14 +15330,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 18069-2023</t>
+          <t>A 18037-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15322,7 +15350,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15359,14 +15387,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 18817-2023</t>
+          <t>A 18069-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45043</v>
+        <v>45040</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15379,7 +15407,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15416,14 +15444,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 19266-2023</t>
+          <t>A 18817-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45049</v>
+        <v>45043</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15436,7 +15464,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15473,14 +15501,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 20302-2023</t>
+          <t>A 19266-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45056</v>
+        <v>45049</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15493,7 +15521,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15530,14 +15558,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 20561-2023</t>
+          <t>A 20302-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15549,13 +15577,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15592,14 +15615,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 20493-2023</t>
+          <t>A 20561-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15611,8 +15634,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15649,14 +15677,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 20741-2023</t>
+          <t>A 20493-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45058</v>
+        <v>45057</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15669,7 +15697,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15706,14 +15734,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 20927-2023</t>
+          <t>A 20741-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45061</v>
+        <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15726,7 +15754,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15763,14 +15791,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 21216-2023</t>
+          <t>A 20927-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45062</v>
+        <v>45061</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15780,11 +15808,6 @@
       <c r="E251" t="inlineStr">
         <is>
           <t>ORSA</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G251" t="n">
@@ -15825,14 +15848,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 21218-2023</t>
+          <t>A 21216-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15850,7 +15873,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15887,14 +15910,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 21560-2023</t>
+          <t>A 21218-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45063</v>
+        <v>45062</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15912,7 +15935,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>19.1</v>
+        <v>0.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15949,14 +15972,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 22911-2023</t>
+          <t>A 21560-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45072</v>
+        <v>45063</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15968,8 +15991,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>1.3</v>
+        <v>19.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16006,14 +16034,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 22902-2023</t>
+          <t>A 22911-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16026,7 +16054,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16063,14 +16091,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 23461-2023</t>
+          <t>A 22902-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16083,7 +16111,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16120,14 +16148,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 23457-2023</t>
+          <t>A 23461-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16140,7 +16168,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16177,14 +16205,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 24126-2023</t>
+          <t>A 23457-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45079</v>
+        <v>45076</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16196,13 +16224,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16239,14 +16262,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 24282-2023</t>
+          <t>A 24126-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16264,7 +16287,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16301,14 +16324,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 26285-2023</t>
+          <t>A 24282-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45091</v>
+        <v>45079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16320,8 +16343,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>16.7</v>
+        <v>2.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16358,14 +16386,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 26294-2023</t>
+          <t>A 26285-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16378,7 +16406,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.6</v>
+        <v>16.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16415,14 +16443,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 26301-2023</t>
+          <t>A 26294-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16435,7 +16463,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16472,14 +16500,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 27531-2023</t>
+          <t>A 26301-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16491,13 +16519,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>13.4</v>
+        <v>1.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16534,14 +16557,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 28196-2023</t>
+          <t>A 27531-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45099</v>
+        <v>45097</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16555,11 +16578,11 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.4</v>
+        <v>13.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16596,14 +16619,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 28082-2023</t>
+          <t>A 28196-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16615,8 +16638,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16653,14 +16681,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 30474-2023</t>
+          <t>A 28082-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16673,7 +16701,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16710,14 +16738,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 28155-2023</t>
+          <t>A 30474-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16729,13 +16757,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>7.8</v>
+        <v>2.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16772,14 +16795,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 28195-2023</t>
+          <t>A 28155-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16797,7 +16820,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>10.3</v>
+        <v>7.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16834,14 +16857,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 30464-2023</t>
+          <t>A 28195-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16853,8 +16876,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>10.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16891,14 +16919,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 29041-2023</t>
+          <t>A 30464-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16911,7 +16939,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16948,14 +16976,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 30458-2023</t>
+          <t>A 29041-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45111</v>
+        <v>45104</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16967,13 +16995,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17010,14 +17033,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 30382-2023</t>
+          <t>A 30458-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17035,7 +17058,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17072,14 +17095,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 30389-2023</t>
+          <t>A 30382-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17120,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17134,14 +17157,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 30392-2023</t>
+          <t>A 30389-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17159,7 +17182,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17196,14 +17219,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 31044-2023</t>
+          <t>A 30392-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45113</v>
+        <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17215,8 +17238,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17253,14 +17281,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 31031-2023</t>
+          <t>A 31044-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17272,13 +17300,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17315,14 +17338,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 31409-2023</t>
+          <t>A 31031-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45114</v>
+        <v>45113</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17334,8 +17357,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17372,14 +17400,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 33753-2023</t>
+          <t>A 31409-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45120</v>
+        <v>45114</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17392,7 +17420,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17429,14 +17457,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 32983-2023</t>
+          <t>A 33753-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45125</v>
+        <v>45120</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17448,13 +17476,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17491,14 +17514,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 32988-2023</t>
+          <t>A 32983-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17516,7 +17539,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17553,14 +17576,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 33673-2023</t>
+          <t>A 32988-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45132</v>
+        <v>45125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17572,8 +17595,13 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17610,14 +17638,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 33977-2023</t>
+          <t>A 33673-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45134</v>
+        <v>45132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17630,7 +17658,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17667,14 +17695,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 34125-2023</t>
+          <t>A 33977-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45135</v>
+        <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17687,7 +17715,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17724,14 +17752,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 35235-2023</t>
+          <t>A 34125-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45145</v>
+        <v>45135</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17744,7 +17772,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17781,14 +17809,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 35477-2023</t>
+          <t>A 35235-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45146</v>
+        <v>45145</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17801,7 +17829,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>7.7</v>
+        <v>0.8</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17838,14 +17866,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 36093-2023</t>
+          <t>A 35477-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45149</v>
+        <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17857,13 +17885,8 @@
           <t>ORSA</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G286" t="n">
-        <v>1.9</v>
+        <v>7.7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17900,14 +17923,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 37606-2023</t>
+          <t>A 36093-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45159</v>
+        <v>45149</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17925,7 +17948,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17962,14 +17985,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 37770-2023</t>
+          <t>A 37606-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17981,97 +18004,216 @@
           <t>ORSA</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G288" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" s="2" t="inlineStr"/>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>A 37770-2023</t>
+        </is>
+      </c>
+      <c r="B289" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C289" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
         <v>2.6</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="n">
-        <v>0</v>
-      </c>
-      <c r="K288" t="n">
-        <v>0</v>
-      </c>
-      <c r="L288" t="n">
-        <v>0</v>
-      </c>
-      <c r="M288" t="n">
-        <v>0</v>
-      </c>
-      <c r="N288" t="n">
-        <v>0</v>
-      </c>
-      <c r="O288" t="n">
-        <v>0</v>
-      </c>
-      <c r="P288" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q288" t="n">
-        <v>0</v>
-      </c>
-      <c r="R288" s="2" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" s="2" t="inlineStr"/>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="A290" t="inlineStr">
         <is>
           <t>A 44600-2023</t>
         </is>
       </c>
-      <c r="B289" s="1" t="n">
+      <c r="B290" s="1" t="n">
         <v>45189</v>
       </c>
-      <c r="C289" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>ORSA</t>
-        </is>
-      </c>
-      <c r="G289" t="n">
+      <c r="C290" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
         <v>3.9</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="n">
-        <v>0</v>
-      </c>
-      <c r="K289" t="n">
-        <v>0</v>
-      </c>
-      <c r="L289" t="n">
-        <v>0</v>
-      </c>
-      <c r="M289" t="n">
-        <v>0</v>
-      </c>
-      <c r="N289" t="n">
-        <v>0</v>
-      </c>
-      <c r="O289" t="n">
-        <v>0</v>
-      </c>
-      <c r="P289" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q289" t="n">
-        <v>0</v>
-      </c>
-      <c r="R289" s="2" t="inlineStr"/>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R290" s="2" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>A 46726-2023</t>
+        </is>
+      </c>
+      <c r="B291" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C291" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45196</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43364</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43374</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43381</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43416</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43476</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43501</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43529</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43609</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43626</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43640</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43643</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43648</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43661</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43664</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43676</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43713</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43717</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43765</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43774</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43797</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43810</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43811</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43816</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43818</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43844</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43845</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43865</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43873</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43909</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>43983</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43997</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44032</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44039</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44053</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44067</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44071</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44102</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44116</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44141</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>44145</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44160</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44176</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44179</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44180</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44182</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44200</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44211</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44218</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44224</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44287</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44300</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44307</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44322</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44336</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44343</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44349</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44350</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44351</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44355</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44356</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44361</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44363</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>44377</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44382</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44391</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>44417</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44448</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44461</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44475</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44477</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44526</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44532</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44536</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>44543</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44545</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44564</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>44588</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>44617</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>44620</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44623</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>44641</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44693</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44699</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44715</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44720</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44722</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44763</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44788</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44844</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44866</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44867</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44869</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44872</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44880</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44888</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44900</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44903</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44908</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44928</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44942</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44973</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44981</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44994</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44997</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>45030</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45040</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45043</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45049</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45056</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45057</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45061</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45062</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45063</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45072</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45076</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>45079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>45091</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45097</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45099</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>45104</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45113</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45114</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45120</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>45125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>45135</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>45145</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45149</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45159</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45189</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45198</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45196</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43364</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43374</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43381</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43416</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43476</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43501</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43529</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43609</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43626</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43640</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43643</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43648</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43661</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43664</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43676</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43713</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43717</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43765</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43774</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43797</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43810</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43811</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43816</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43818</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43844</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43845</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43865</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43873</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43909</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>43983</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43997</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44032</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44039</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44053</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44067</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44071</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44102</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44116</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44141</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>44145</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44160</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44176</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44179</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44180</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44182</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44200</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44211</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44218</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44224</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44287</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44300</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44307</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44322</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44336</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44343</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44349</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44350</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44351</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44355</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44356</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44361</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44363</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>44377</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44382</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44391</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>44417</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44448</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44461</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44475</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44477</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44526</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44532</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44536</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>44543</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44545</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44564</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>44588</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>44617</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>44620</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44623</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>44641</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44693</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44699</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44715</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44720</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44722</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44763</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44788</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44844</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44866</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44867</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44869</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44872</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44880</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44888</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44900</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44903</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44908</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44928</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44942</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44973</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44981</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44994</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44997</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>45030</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45040</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45043</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45049</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45056</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45057</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45061</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45062</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45063</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45072</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45076</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>45079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>45091</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45097</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45099</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>45104</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45113</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45114</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45120</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>45125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>45135</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>45145</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45149</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45159</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45189</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45198</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45196</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43364</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43374</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43381</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43416</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43476</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43501</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43529</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43609</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43626</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43640</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43643</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43648</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43661</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43664</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43676</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43713</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43717</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43765</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43774</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43797</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43810</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43811</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43816</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43818</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43844</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43845</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43865</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43873</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43909</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>43983</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43997</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44032</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44039</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44053</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44067</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44071</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44102</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44116</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44141</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>44145</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44160</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44176</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44179</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44180</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44182</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44200</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44211</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44218</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44224</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44287</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44300</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44307</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44322</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44336</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44343</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44349</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44350</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44351</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44355</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44356</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44361</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44363</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>44377</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44382</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44391</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>44417</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44448</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44461</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44475</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44477</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44526</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44532</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44536</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>44543</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44545</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44564</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>44588</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>44617</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>44620</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44623</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>44641</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44693</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44699</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44715</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44720</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44722</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44763</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44788</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44844</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44866</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44867</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44869</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44872</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44880</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44888</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44900</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44903</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44908</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44928</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44942</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44973</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44981</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44994</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44997</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>45030</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45040</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45043</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45049</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45056</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45057</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45061</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45062</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45063</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45072</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45076</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>45079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>45091</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45097</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45099</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>45104</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45113</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45114</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45120</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>45125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>45135</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>45145</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45149</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45159</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45189</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45198</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>

--- a/Översikt ORSA.xlsx
+++ b/Översikt ORSA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y291"/>
+  <dimension ref="A1:Y292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44935</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>43788</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>45149</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45154</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44691</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45128</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44701</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44858</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43319</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44060</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44833</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45145</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45196</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43319</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43364</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43374</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43381</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43416</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43416</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>43416</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43418</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>43472</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>43476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43476</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43489</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43489</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>43501</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>43502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>43529</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43529</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43550</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43550</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43550</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43609</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43619</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43626</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43640</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43643</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43643</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43648</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43661</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43664</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43676</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43676</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43682</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43713</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43717</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43738</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43765</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43774</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43797</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43797</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43810</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43811</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43816</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43818</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43818</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43844</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>43845</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>43846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>43865</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43871</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43873</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43906</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43909</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>43948</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>43951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>43983</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>43997</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44008</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>44032</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>44039</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44053</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44053</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44067</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44071</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44102</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44102</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44116</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44141</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>44145</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>44158</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>44160</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>44160</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44160</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44176</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44179</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44179</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44179</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44179</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44180</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44182</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>44182</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44200</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44211</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44218</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44218</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44224</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44287</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44300</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44307</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44322</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44336</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44343</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44349</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44350</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44351</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44355</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44356</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44361</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44363</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44377</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>44377</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44382</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44382</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44391</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>44417</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>44424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>44432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44448</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>44453</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44460</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44461</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44461</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44466</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44469</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44475</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44477</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44483</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44494</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44496</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44497</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44497</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>44526</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>44532</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44536</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>44543</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44545</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44564</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>44564</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>44588</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>44617</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>44620</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44623</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>44623</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>44641</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44693</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44699</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44715</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>44720</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44722</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44763</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44788</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44844</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44866</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44867</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44869</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44872</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44880</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44880</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44888</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44900</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44903</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44908</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44928</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44928</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44942</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44973</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44981</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44994</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44997</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>45030</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>45040</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45040</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45043</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45049</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45056</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45057</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45057</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45061</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45062</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45062</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45063</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45072</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45072</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45076</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45076</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>45079</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>45079</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>45091</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45091</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>45091</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45097</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45099</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45099</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>45099</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45099</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>45104</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45113</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45113</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45114</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45120</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>45125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45132</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>45135</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>45145</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45149</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45159</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45159</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45189</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
       </c>
       <c r="R290" s="2" t="inlineStr"/>
     </row>
-    <row r="291">
+    <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
           <t>A 46726-2023</t>
@@ -18168,7 +18168,7 @@
         <v>45198</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18214,6 +18214,68 @@
         <v>0</v>
       </c>
       <c r="R291" s="2" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>A 47905-2023</t>
+        </is>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C292" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>ORSA</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R292" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
